--- a/new original/_Lang_Chinese/Lang/CN/Game/Stat.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/Stat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="1128">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.260</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
@@ -1478,6 +1478,27 @@
     <t xml:space="preserve">コウモリ変容</t>
   </si>
   <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mimic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミミック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 mimic(s).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は擬態した。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 reveal(s) #his true form!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は擬態を解いた！</t>
+  </si>
+  <si>
     <t xml:space="preserve">99</t>
   </si>
   <si>
@@ -1488,6 +1509,30 @@
   </si>
   <si>
     <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peaky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ピーキー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不意打ち</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition where critical hits are guaranteed on all attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻撃が必ずクリティカルヒットになる状態。</t>
   </si>
   <si>
     <t xml:space="preserve">50</t>
@@ -2406,6 +2451,9 @@
     <t xml:space="preserve">EA 23.233</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.257</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.239</t>
   </si>
   <si>
@@ -2574,6 +2622,15 @@
     <t xml:space="preserve">蝙蝠变形</t>
   </si>
   <si>
+    <t xml:space="preserve">拟态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">极速难驭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">偷袭</t>
+  </si>
+  <si>
     <t xml:space="preserve">瘴气</t>
   </si>
   <si>
@@ -2809,6 +2866,9 @@
   </si>
   <si>
     <t xml:space="preserve">变形成其他的模样。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击必定暴击的状态。</t>
   </si>
   <si>
     <t xml:space="preserve">持续夺走体力的诅咒。</t>
@@ -3121,6 +3181,9 @@
   </si>
   <si>
     <t xml:space="preserve">#1变形了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1拟态了。</t>
   </si>
   <si>
     <t xml:space="preserve">#1被#2瘴气包围了。</t>
@@ -3342,6 +3405,9 @@
   </si>
   <si>
     <t xml:space="preserve">#1的小宇宙燃尽了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1解除拟态了！</t>
   </si>
   <si>
     <t xml:space="preserve">#1的身体恢复原本的轻盈。</t>
@@ -3546,10 +3612,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="C3" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -3558,7 +3624,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -3567,7 +3633,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>954</v>
+        <v>974</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -3576,7 +3642,7 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>977</v>
+        <v>997</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -3587,7 +3653,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="s">
-        <v>1052</v>
+        <v>1073</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -3601,10 +3667,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="C4" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -3613,7 +3679,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -3622,7 +3688,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -3631,7 +3697,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>978</v>
+        <v>998</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3642,7 +3708,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
-        <v>1053</v>
+        <v>1074</v>
       </c>
       <c r="S4" t="s">
         <v>39</v>
@@ -3656,10 +3722,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="C5" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3668,7 +3734,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -3677,7 +3743,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -3686,7 +3752,7 @@
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>979</v>
+        <v>999</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -3697,7 +3763,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" t="s">
-        <v>1054</v>
+        <v>1075</v>
       </c>
       <c r="S5" t="s">
         <v>48</v>
@@ -3711,10 +3777,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="C6" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -3723,7 +3789,7 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -3732,7 +3798,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
@@ -3741,7 +3807,7 @@
         <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="M6" t="s">
         <v>55</v>
@@ -3752,7 +3818,7 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" t="s">
-        <v>1055</v>
+        <v>1076</v>
       </c>
       <c r="S6" t="s">
         <v>57</v>
@@ -3766,10 +3832,10 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="C7" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -3778,7 +3844,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
@@ -3787,7 +3853,7 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="J7" t="s">
         <v>60</v>
@@ -3796,7 +3862,7 @@
         <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>981</v>
+        <v>1001</v>
       </c>
       <c r="M7" t="s">
         <v>64</v>
@@ -3807,7 +3873,7 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7" t="s">
-        <v>1056</v>
+        <v>1077</v>
       </c>
       <c r="S7" t="s">
         <v>66</v>
@@ -3821,10 +3887,10 @@
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="C8" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
@@ -3833,7 +3899,7 @@
         <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -3842,7 +3908,7 @@
         <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="J8" t="s">
         <v>69</v>
@@ -3851,7 +3917,7 @@
         <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>982</v>
+        <v>1002</v>
       </c>
       <c r="M8" t="s">
         <v>73</v>
@@ -3862,7 +3928,7 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8" t="s">
-        <v>1057</v>
+        <v>1078</v>
       </c>
       <c r="S8" t="s">
         <v>66</v>
@@ -3876,7 +3942,7 @@
         <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -3888,7 +3954,7 @@
         <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="G9" t="s">
         <v>78</v>
@@ -3897,7 +3963,7 @@
         <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>955</v>
+        <v>975</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -3906,7 +3972,7 @@
         <v>81</v>
       </c>
       <c r="L9" t="s">
-        <v>983</v>
+        <v>1003</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -3915,7 +3981,7 @@
         <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>1048</v>
+        <v>1069</v>
       </c>
       <c r="P9" t="s">
         <v>84</v>
@@ -3924,7 +3990,7 @@
         <v>85</v>
       </c>
       <c r="R9" t="s">
-        <v>1058</v>
+        <v>1079</v>
       </c>
       <c r="S9" t="s">
         <v>86</v>
@@ -3938,10 +4004,10 @@
         <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="C10" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="D10" t="s">
         <v>89</v>
@@ -3950,7 +4016,7 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
       <c r="G10" t="s">
         <v>91</v>
@@ -3959,7 +4025,7 @@
         <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>956</v>
+        <v>976</v>
       </c>
       <c r="J10" t="s">
         <v>93</v>
@@ -3968,7 +4034,7 @@
         <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>984</v>
+        <v>1004</v>
       </c>
       <c r="M10" t="s">
         <v>95</v>
@@ -3977,7 +4043,7 @@
         <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>1049</v>
+        <v>1070</v>
       </c>
       <c r="P10" t="s">
         <v>97</v>
@@ -3993,10 +4059,10 @@
         <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C11" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="D11" t="s">
         <v>100</v>
@@ -4005,7 +4071,7 @@
         <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="G11" t="s">
         <v>102</v>
@@ -4014,7 +4080,7 @@
         <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="J11" t="s">
         <v>100</v>
@@ -4023,7 +4089,7 @@
         <v>101</v>
       </c>
       <c r="L11" t="s">
-        <v>985</v>
+        <v>1005</v>
       </c>
       <c r="M11" t="s">
         <v>104</v>
@@ -4034,7 +4100,7 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="s">
-        <v>1059</v>
+        <v>1080</v>
       </c>
       <c r="S11" t="s">
         <v>106</v>
@@ -4048,10 +4114,10 @@
         <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C12" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -4060,7 +4126,7 @@
         <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
       <c r="G12" t="s">
         <v>111</v>
@@ -4069,7 +4135,7 @@
         <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="J12" t="s">
         <v>109</v>
@@ -4078,7 +4144,7 @@
         <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>986</v>
+        <v>1006</v>
       </c>
       <c r="M12" t="s">
         <v>113</v>
@@ -4089,7 +4155,7 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>1060</v>
+        <v>1081</v>
       </c>
       <c r="S12" t="s">
         <v>115</v>
@@ -4103,7 +4169,7 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C13" t="s">
         <v>119</v>
@@ -4115,7 +4181,7 @@
         <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="G13" t="s">
         <v>120</v>
@@ -4133,7 +4199,7 @@
         <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>987</v>
+        <v>1007</v>
       </c>
       <c r="M13" t="s">
         <v>123</v>
@@ -4144,7 +4210,7 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="s">
-        <v>1061</v>
+        <v>1082</v>
       </c>
       <c r="S13" t="s">
         <v>125</v>
@@ -4158,10 +4224,10 @@
         <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C14" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="D14" t="s">
         <v>128</v>
@@ -4170,7 +4236,7 @@
         <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>885</v>
+        <v>904</v>
       </c>
       <c r="G14" t="s">
         <v>130</v>
@@ -4179,7 +4245,7 @@
         <v>131</v>
       </c>
       <c r="I14" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="J14" t="s">
         <v>132</v>
@@ -4188,7 +4254,7 @@
         <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>988</v>
+        <v>1008</v>
       </c>
       <c r="M14" t="s">
         <v>133</v>
@@ -4199,7 +4265,7 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>1062</v>
+        <v>1083</v>
       </c>
       <c r="S14" t="s">
         <v>135</v>
@@ -4213,7 +4279,7 @@
         <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="C15" t="s">
         <v>139</v>
@@ -4225,7 +4291,7 @@
         <v>139</v>
       </c>
       <c r="F15" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
       <c r="G15" t="s">
         <v>140</v>
@@ -4243,7 +4309,7 @@
         <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>989</v>
+        <v>1009</v>
       </c>
       <c r="M15" t="s">
         <v>143</v>
@@ -4254,7 +4320,7 @@
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>1063</v>
+        <v>1084</v>
       </c>
       <c r="S15" t="s">
         <v>145</v>
@@ -4268,10 +4334,10 @@
         <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C16" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="D16" t="s">
         <v>148</v>
@@ -4280,7 +4346,7 @@
         <v>149</v>
       </c>
       <c r="F16" t="s">
-        <v>885</v>
+        <v>904</v>
       </c>
       <c r="G16" t="s">
         <v>130</v>
@@ -4289,7 +4355,7 @@
         <v>131</v>
       </c>
       <c r="I16" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="J16" t="s">
         <v>150</v>
@@ -4298,7 +4364,7 @@
         <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="M16" t="s">
         <v>151</v>
@@ -4309,7 +4375,7 @@
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16" t="s">
-        <v>1064</v>
+        <v>1085</v>
       </c>
       <c r="S16" t="s">
         <v>153</v>
@@ -4323,7 +4389,7 @@
         <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C17" t="s">
         <v>157</v>
@@ -4335,7 +4401,7 @@
         <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
       <c r="G17" t="s">
         <v>158</v>
@@ -4353,7 +4419,7 @@
         <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>991</v>
+        <v>1011</v>
       </c>
       <c r="M17" t="s">
         <v>161</v>
@@ -4364,7 +4430,7 @@
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="s">
-        <v>1065</v>
+        <v>1086</v>
       </c>
       <c r="S17" t="s">
         <v>163</v>
@@ -4378,10 +4444,10 @@
         <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C18" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="D18" t="s">
         <v>166</v>
@@ -4390,7 +4456,7 @@
         <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="G18" t="s">
         <v>168</v>
@@ -4399,7 +4465,7 @@
         <v>169</v>
       </c>
       <c r="I18" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="J18" t="s">
         <v>166</v>
@@ -4408,7 +4474,7 @@
         <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>992</v>
+        <v>1012</v>
       </c>
       <c r="M18" t="s">
         <v>170</v>
@@ -4419,7 +4485,7 @@
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>1066</v>
+        <v>1087</v>
       </c>
       <c r="S18" t="s">
         <v>172</v>
@@ -4433,10 +4499,10 @@
         <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C19" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="D19" t="s">
         <v>175</v>
@@ -4445,7 +4511,7 @@
         <v>176</v>
       </c>
       <c r="F19" t="s">
-        <v>889</v>
+        <v>908</v>
       </c>
       <c r="G19" t="s">
         <v>177</v>
@@ -4454,7 +4520,7 @@
         <v>178</v>
       </c>
       <c r="I19" t="s">
-        <v>957</v>
+        <v>977</v>
       </c>
       <c r="J19" t="s">
         <v>179</v>
@@ -4463,7 +4529,7 @@
         <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>993</v>
+        <v>1013</v>
       </c>
       <c r="M19" t="s">
         <v>181</v>
@@ -4474,7 +4540,7 @@
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>1067</v>
+        <v>1088</v>
       </c>
       <c r="S19" t="s">
         <v>183</v>
@@ -4488,7 +4554,7 @@
         <v>185</v>
       </c>
       <c r="B20" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C20" t="s">
         <v>187</v>
@@ -4500,7 +4566,7 @@
         <v>187</v>
       </c>
       <c r="F20" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
       <c r="G20" t="s">
         <v>188</v>
@@ -4509,7 +4575,7 @@
         <v>189</v>
       </c>
       <c r="I20" t="s">
-        <v>958</v>
+        <v>978</v>
       </c>
       <c r="J20" t="s">
         <v>190</v>
@@ -4518,7 +4584,7 @@
         <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>994</v>
+        <v>1014</v>
       </c>
       <c r="M20" t="s">
         <v>192</v>
@@ -4529,7 +4595,7 @@
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>1068</v>
+        <v>1089</v>
       </c>
       <c r="S20" t="s">
         <v>194</v>
@@ -4543,10 +4609,10 @@
         <v>196</v>
       </c>
       <c r="B21" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C21" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="D21" t="s">
         <v>197</v>
@@ -4555,7 +4621,7 @@
         <v>198</v>
       </c>
       <c r="F21" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="G21" t="s">
         <v>199</v>
@@ -4564,7 +4630,7 @@
         <v>200</v>
       </c>
       <c r="I21" t="s">
-        <v>959</v>
+        <v>979</v>
       </c>
       <c r="J21" t="s">
         <v>201</v>
@@ -4573,7 +4639,7 @@
         <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>995</v>
+        <v>1015</v>
       </c>
       <c r="M21" t="s">
         <v>203</v>
@@ -4584,7 +4650,7 @@
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>1069</v>
+        <v>1090</v>
       </c>
       <c r="S21" t="s">
         <v>205</v>
@@ -4598,10 +4664,10 @@
         <v>207</v>
       </c>
       <c r="B22" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="C22" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="D22" t="s">
         <v>208</v>
@@ -4610,7 +4676,7 @@
         <v>209</v>
       </c>
       <c r="F22" t="s">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="G22" t="s">
         <v>210</v>
@@ -4619,7 +4685,7 @@
         <v>211</v>
       </c>
       <c r="I22" t="s">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="J22" t="s">
         <v>212</v>
@@ -4628,7 +4694,7 @@
         <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>996</v>
+        <v>1016</v>
       </c>
       <c r="M22" t="s">
         <v>214</v>
@@ -4639,7 +4705,7 @@
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22" t="s">
-        <v>1070</v>
+        <v>1091</v>
       </c>
       <c r="S22" t="s">
         <v>216</v>
@@ -4653,10 +4719,10 @@
         <v>218</v>
       </c>
       <c r="B23" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="C23" t="s">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="D23" t="s">
         <v>219</v>
@@ -4665,7 +4731,7 @@
         <v>220</v>
       </c>
       <c r="F23" t="s">
-        <v>893</v>
+        <v>912</v>
       </c>
       <c r="G23" t="s">
         <v>221</v>
@@ -4674,7 +4740,7 @@
         <v>222</v>
       </c>
       <c r="I23" t="s">
-        <v>961</v>
+        <v>981</v>
       </c>
       <c r="J23" t="s">
         <v>223</v>
@@ -4683,7 +4749,7 @@
         <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="M23" t="s">
         <v>225</v>
@@ -4694,7 +4760,7 @@
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23" t="s">
-        <v>1071</v>
+        <v>1092</v>
       </c>
       <c r="S23" t="s">
         <v>227</v>
@@ -4708,10 +4774,10 @@
         <v>229</v>
       </c>
       <c r="B24" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C24" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="D24" t="s">
         <v>230</v>
@@ -4720,7 +4786,7 @@
         <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
       <c r="G24" t="s">
         <v>232</v>
@@ -4729,7 +4795,7 @@
         <v>233</v>
       </c>
       <c r="I24" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="J24" t="s">
         <v>230</v>
@@ -4738,7 +4804,7 @@
         <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>998</v>
+        <v>1018</v>
       </c>
       <c r="M24" t="s">
         <v>234</v>
@@ -4749,7 +4815,7 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24" t="s">
-        <v>1072</v>
+        <v>1093</v>
       </c>
       <c r="S24" t="s">
         <v>236</v>
@@ -4763,10 +4829,10 @@
         <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="C25" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -4775,7 +4841,7 @@
         <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>895</v>
+        <v>914</v>
       </c>
       <c r="G25" t="s">
         <v>241</v>
@@ -4784,7 +4850,7 @@
         <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>962</v>
+        <v>982</v>
       </c>
       <c r="J25" t="s">
         <v>239</v>
@@ -4793,7 +4859,7 @@
         <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>999</v>
+        <v>1019</v>
       </c>
       <c r="M25" t="s">
         <v>243</v>
@@ -4811,10 +4877,10 @@
         <v>245</v>
       </c>
       <c r="B26" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="C26" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="D26" t="s">
         <v>246</v>
@@ -4823,7 +4889,7 @@
         <v>247</v>
       </c>
       <c r="F26" t="s">
-        <v>896</v>
+        <v>915</v>
       </c>
       <c r="G26" t="s">
         <v>248</v>
@@ -4832,7 +4898,7 @@
         <v>249</v>
       </c>
       <c r="I26" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="J26" t="s">
         <v>246</v>
@@ -4841,7 +4907,7 @@
         <v>247</v>
       </c>
       <c r="L26" t="s">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="M26" t="s">
         <v>250</v>
@@ -4852,7 +4918,7 @@
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>1073</v>
+        <v>1094</v>
       </c>
       <c r="S26" t="s">
         <v>252</v>
@@ -4866,10 +4932,10 @@
         <v>254</v>
       </c>
       <c r="B27" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="C27" t="s">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="D27" t="s">
         <v>255</v>
@@ -4878,7 +4944,7 @@
         <v>256</v>
       </c>
       <c r="F27" t="s">
-        <v>897</v>
+        <v>916</v>
       </c>
       <c r="G27" t="s">
         <v>257</v>
@@ -4887,7 +4953,7 @@
         <v>258</v>
       </c>
       <c r="I27" t="s">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="J27" t="s">
         <v>255</v>
@@ -4896,7 +4962,7 @@
         <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>1001</v>
+        <v>1021</v>
       </c>
       <c r="M27" t="s">
         <v>259</v>
@@ -4907,7 +4973,7 @@
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>1074</v>
+        <v>1095</v>
       </c>
       <c r="S27" t="s">
         <v>261</v>
@@ -4921,10 +4987,10 @@
         <v>263</v>
       </c>
       <c r="B28" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="C28" t="s">
-        <v>818</v>
+        <v>834</v>
       </c>
       <c r="D28" t="s">
         <v>264</v>
@@ -4933,7 +4999,7 @@
         <v>265</v>
       </c>
       <c r="F28" t="s">
-        <v>898</v>
+        <v>917</v>
       </c>
       <c r="G28" t="s">
         <v>266</v>
@@ -4942,7 +5008,7 @@
         <v>267</v>
       </c>
       <c r="I28" t="s">
-        <v>818</v>
+        <v>834</v>
       </c>
       <c r="J28" t="s">
         <v>264</v>
@@ -4951,7 +5017,7 @@
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>1002</v>
+        <v>1022</v>
       </c>
       <c r="M28" t="s">
         <v>268</v>
@@ -4962,7 +5028,7 @@
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>1075</v>
+        <v>1096</v>
       </c>
       <c r="S28" t="s">
         <v>270</v>
@@ -4976,10 +5042,10 @@
         <v>272</v>
       </c>
       <c r="B29" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="C29" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="D29" t="s">
         <v>273</v>
@@ -4988,7 +5054,7 @@
         <v>274</v>
       </c>
       <c r="F29" t="s">
-        <v>899</v>
+        <v>918</v>
       </c>
       <c r="G29" t="s">
         <v>275</v>
@@ -4997,7 +5063,7 @@
         <v>276</v>
       </c>
       <c r="I29" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="J29" t="s">
         <v>273</v>
@@ -5006,7 +5072,7 @@
         <v>274</v>
       </c>
       <c r="L29" t="s">
-        <v>1003</v>
+        <v>1023</v>
       </c>
       <c r="M29" t="s">
         <v>277</v>
@@ -5017,7 +5083,7 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>1076</v>
+        <v>1097</v>
       </c>
       <c r="S29" t="s">
         <v>279</v>
@@ -5031,7 +5097,7 @@
         <v>281</v>
       </c>
       <c r="B30" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="C30" t="s">
         <v>283</v>
@@ -5043,7 +5109,7 @@
         <v>283</v>
       </c>
       <c r="F30" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
       <c r="G30" t="s">
         <v>284</v>
@@ -5061,7 +5127,7 @@
         <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="M30" t="s">
         <v>286</v>
@@ -5072,7 +5138,7 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>1077</v>
+        <v>1098</v>
       </c>
       <c r="S30" t="s">
         <v>288</v>
@@ -5086,10 +5152,10 @@
         <v>290</v>
       </c>
       <c r="B31" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="C31" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="D31" t="s">
         <v>291</v>
@@ -5098,7 +5164,7 @@
         <v>292</v>
       </c>
       <c r="F31" t="s">
-        <v>901</v>
+        <v>920</v>
       </c>
       <c r="G31" t="s">
         <v>293</v>
@@ -5107,7 +5173,7 @@
         <v>294</v>
       </c>
       <c r="I31" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="J31" t="s">
         <v>291</v>
@@ -5116,7 +5182,7 @@
         <v>292</v>
       </c>
       <c r="L31" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="M31" t="s">
         <v>295</v>
@@ -5127,7 +5193,7 @@
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" t="s">
-        <v>1078</v>
+        <v>1099</v>
       </c>
       <c r="S31" t="s">
         <v>297</v>
@@ -5141,10 +5207,10 @@
         <v>299</v>
       </c>
       <c r="B32" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="C32" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="D32" t="s">
         <v>300</v>
@@ -5153,7 +5219,7 @@
         <v>301</v>
       </c>
       <c r="F32" t="s">
-        <v>902</v>
+        <v>921</v>
       </c>
       <c r="G32" t="s">
         <v>302</v>
@@ -5162,7 +5228,7 @@
         <v>303</v>
       </c>
       <c r="I32" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="J32" t="s">
         <v>300</v>
@@ -5171,7 +5237,7 @@
         <v>301</v>
       </c>
       <c r="L32" t="s">
-        <v>1006</v>
+        <v>1026</v>
       </c>
       <c r="M32" t="s">
         <v>304</v>
@@ -5182,7 +5248,7 @@
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32" t="s">
-        <v>1079</v>
+        <v>1100</v>
       </c>
       <c r="S32" t="s">
         <v>306</v>
@@ -5196,10 +5262,10 @@
         <v>308</v>
       </c>
       <c r="B33" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C33" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="D33" t="s">
         <v>309</v>
@@ -5208,7 +5274,7 @@
         <v>310</v>
       </c>
       <c r="F33" t="s">
-        <v>903</v>
+        <v>922</v>
       </c>
       <c r="G33" t="s">
         <v>311</v>
@@ -5217,7 +5283,7 @@
         <v>312</v>
       </c>
       <c r="I33" t="s">
-        <v>963</v>
+        <v>983</v>
       </c>
       <c r="J33" t="s">
         <v>313</v>
@@ -5226,7 +5292,7 @@
         <v>314</v>
       </c>
       <c r="L33" t="s">
-        <v>1007</v>
+        <v>1027</v>
       </c>
       <c r="M33" t="s">
         <v>315</v>
@@ -5237,7 +5303,7 @@
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" t="s">
-        <v>1080</v>
+        <v>1101</v>
       </c>
       <c r="S33" t="s">
         <v>317</v>
@@ -5251,10 +5317,10 @@
         <v>319</v>
       </c>
       <c r="B34" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C34" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="D34" t="s">
         <v>320</v>
@@ -5263,7 +5329,7 @@
         <v>321</v>
       </c>
       <c r="F34" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="G34" t="s">
         <v>322</v>
@@ -5272,7 +5338,7 @@
         <v>323</v>
       </c>
       <c r="I34" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="J34" t="s">
         <v>320</v>
@@ -5281,7 +5347,7 @@
         <v>321</v>
       </c>
       <c r="L34" t="s">
-        <v>1008</v>
+        <v>1028</v>
       </c>
       <c r="M34" t="s">
         <v>324</v>
@@ -5292,7 +5358,7 @@
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>1081</v>
+        <v>1102</v>
       </c>
       <c r="S34" t="s">
         <v>326</v>
@@ -5306,10 +5372,10 @@
         <v>328</v>
       </c>
       <c r="B35" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="C35" t="s">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="D35" t="s">
         <v>329</v>
@@ -5318,7 +5384,7 @@
         <v>330</v>
       </c>
       <c r="F35" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
       <c r="G35" t="s">
         <v>331</v>
@@ -5327,7 +5393,7 @@
         <v>332</v>
       </c>
       <c r="I35" t="s">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="J35" t="s">
         <v>329</v>
@@ -5336,7 +5402,7 @@
         <v>330</v>
       </c>
       <c r="L35" t="s">
-        <v>1009</v>
+        <v>1029</v>
       </c>
       <c r="M35" t="s">
         <v>333</v>
@@ -5347,7 +5413,7 @@
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>1082</v>
+        <v>1103</v>
       </c>
       <c r="S35" t="s">
         <v>335</v>
@@ -5361,10 +5427,10 @@
         <v>337</v>
       </c>
       <c r="B36" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="C36" t="s">
-        <v>825</v>
+        <v>841</v>
       </c>
       <c r="D36" t="s">
         <v>338</v>
@@ -5373,7 +5439,7 @@
         <v>339</v>
       </c>
       <c r="F36" t="s">
-        <v>906</v>
+        <v>925</v>
       </c>
       <c r="G36" t="s">
         <v>340</v>
@@ -5382,7 +5448,7 @@
         <v>341</v>
       </c>
       <c r="I36" t="s">
-        <v>825</v>
+        <v>841</v>
       </c>
       <c r="J36" t="s">
         <v>342</v>
@@ -5391,7 +5457,7 @@
         <v>339</v>
       </c>
       <c r="L36" t="s">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="M36" t="s">
         <v>343</v>
@@ -5402,7 +5468,7 @@
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>1083</v>
+        <v>1104</v>
       </c>
       <c r="S36" t="s">
         <v>345</v>
@@ -5416,7 +5482,7 @@
         <v>347</v>
       </c>
       <c r="B37" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="C37" t="s">
         <v>349</v>
@@ -5428,7 +5494,7 @@
         <v>349</v>
       </c>
       <c r="F37" t="s">
-        <v>907</v>
+        <v>926</v>
       </c>
       <c r="G37" t="s">
         <v>350</v>
@@ -5446,7 +5512,7 @@
         <v>349</v>
       </c>
       <c r="L37" t="s">
-        <v>1011</v>
+        <v>1031</v>
       </c>
       <c r="M37" t="s">
         <v>352</v>
@@ -5457,7 +5523,7 @@
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" t="s">
-        <v>1084</v>
+        <v>1105</v>
       </c>
       <c r="S37" t="s">
         <v>354</v>
@@ -5471,10 +5537,10 @@
         <v>356</v>
       </c>
       <c r="B38" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="C38" t="s">
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="D38" t="s">
         <v>357</v>
@@ -5483,7 +5549,7 @@
         <v>358</v>
       </c>
       <c r="F38" t="s">
-        <v>908</v>
+        <v>927</v>
       </c>
       <c r="G38" t="s">
         <v>359</v>
@@ -5492,7 +5558,7 @@
         <v>360</v>
       </c>
       <c r="I38" t="s">
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="J38" t="s">
         <v>361</v>
@@ -5501,7 +5567,7 @@
         <v>358</v>
       </c>
       <c r="L38" t="s">
-        <v>1012</v>
+        <v>1032</v>
       </c>
       <c r="M38" t="s">
         <v>362</v>
@@ -5512,7 +5578,7 @@
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38" t="s">
-        <v>1085</v>
+        <v>1106</v>
       </c>
       <c r="S38" t="s">
         <v>364</v>
@@ -5526,10 +5592,10 @@
         <v>366</v>
       </c>
       <c r="B39" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="C39" t="s">
-        <v>827</v>
+        <v>843</v>
       </c>
       <c r="D39" t="s">
         <v>367</v>
@@ -5538,7 +5604,7 @@
         <v>368</v>
       </c>
       <c r="F39" t="s">
-        <v>909</v>
+        <v>928</v>
       </c>
       <c r="G39" t="s">
         <v>369</v>
@@ -5547,7 +5613,7 @@
         <v>370</v>
       </c>
       <c r="I39" t="s">
-        <v>827</v>
+        <v>843</v>
       </c>
       <c r="J39" t="s">
         <v>367</v>
@@ -5556,7 +5622,7 @@
         <v>368</v>
       </c>
       <c r="L39" t="s">
-        <v>1013</v>
+        <v>1033</v>
       </c>
       <c r="M39" t="s">
         <v>371</v>
@@ -5567,7 +5633,7 @@
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39" t="s">
-        <v>1086</v>
+        <v>1107</v>
       </c>
       <c r="S39" t="s">
         <v>373</v>
@@ -5581,10 +5647,10 @@
         <v>375</v>
       </c>
       <c r="B40" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="C40" t="s">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="D40" t="s">
         <v>376</v>
@@ -5593,7 +5659,7 @@
         <v>377</v>
       </c>
       <c r="F40" t="s">
-        <v>910</v>
+        <v>929</v>
       </c>
       <c r="G40" t="s">
         <v>378</v>
@@ -5602,7 +5668,7 @@
         <v>379</v>
       </c>
       <c r="I40" t="s">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="J40" t="s">
         <v>376</v>
@@ -5611,7 +5677,7 @@
         <v>377</v>
       </c>
       <c r="L40" t="s">
-        <v>1014</v>
+        <v>1034</v>
       </c>
       <c r="M40" t="s">
         <v>380</v>
@@ -5622,7 +5688,7 @@
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40" t="s">
-        <v>1087</v>
+        <v>1108</v>
       </c>
       <c r="S40" t="s">
         <v>382</v>
@@ -5636,10 +5702,10 @@
         <v>384</v>
       </c>
       <c r="B41" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="C41" t="s">
-        <v>829</v>
+        <v>845</v>
       </c>
       <c r="D41" t="s">
         <v>385</v>
@@ -5648,7 +5714,7 @@
         <v>386</v>
       </c>
       <c r="F41" t="s">
-        <v>911</v>
+        <v>930</v>
       </c>
       <c r="G41" t="s">
         <v>387</v>
@@ -5657,7 +5723,7 @@
         <v>388</v>
       </c>
       <c r="I41" t="s">
-        <v>829</v>
+        <v>845</v>
       </c>
       <c r="J41" t="s">
         <v>385</v>
@@ -5666,7 +5732,7 @@
         <v>386</v>
       </c>
       <c r="L41" t="s">
-        <v>1015</v>
+        <v>1035</v>
       </c>
       <c r="M41" t="s">
         <v>389</v>
@@ -5684,10 +5750,10 @@
         <v>391</v>
       </c>
       <c r="B42" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="C42" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="D42" t="s">
         <v>392</v>
@@ -5696,7 +5762,7 @@
         <v>393</v>
       </c>
       <c r="F42" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
       <c r="G42" t="s">
         <v>394</v>
@@ -5705,7 +5771,7 @@
         <v>395</v>
       </c>
       <c r="I42" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="J42" t="s">
         <v>392</v>
@@ -5725,10 +5791,10 @@
         <v>396</v>
       </c>
       <c r="B43" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="C43" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
       <c r="D43" t="s">
         <v>397</v>
@@ -5737,7 +5803,7 @@
         <v>398</v>
       </c>
       <c r="F43" t="s">
-        <v>913</v>
+        <v>932</v>
       </c>
       <c r="G43" t="s">
         <v>399</v>
@@ -5746,7 +5812,7 @@
         <v>400</v>
       </c>
       <c r="I43" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
       <c r="J43" t="s">
         <v>397</v>
@@ -5766,10 +5832,10 @@
         <v>401</v>
       </c>
       <c r="B44" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="C44" t="s">
-        <v>832</v>
+        <v>848</v>
       </c>
       <c r="D44" t="s">
         <v>402</v>
@@ -5778,7 +5844,7 @@
         <v>403</v>
       </c>
       <c r="F44" t="s">
-        <v>914</v>
+        <v>933</v>
       </c>
       <c r="G44" t="s">
         <v>404</v>
@@ -5787,7 +5853,7 @@
         <v>405</v>
       </c>
       <c r="I44" t="s">
-        <v>832</v>
+        <v>848</v>
       </c>
       <c r="J44" t="s">
         <v>402</v>
@@ -5796,7 +5862,7 @@
         <v>403</v>
       </c>
       <c r="L44" t="s">
-        <v>1016</v>
+        <v>1036</v>
       </c>
       <c r="M44" t="s">
         <v>406</v>
@@ -5807,7 +5873,7 @@
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>1088</v>
+        <v>1109</v>
       </c>
       <c r="S44" t="s">
         <v>408</v>
@@ -5821,10 +5887,10 @@
         <v>410</v>
       </c>
       <c r="B45" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C45" t="s">
-        <v>833</v>
+        <v>849</v>
       </c>
       <c r="D45" t="s">
         <v>411</v>
@@ -5833,7 +5899,7 @@
         <v>412</v>
       </c>
       <c r="F45" t="s">
-        <v>915</v>
+        <v>934</v>
       </c>
       <c r="G45" t="s">
         <v>413</v>
@@ -5842,7 +5908,7 @@
         <v>414</v>
       </c>
       <c r="I45" t="s">
-        <v>833</v>
+        <v>849</v>
       </c>
       <c r="J45" t="s">
         <v>415</v>
@@ -5851,7 +5917,7 @@
         <v>412</v>
       </c>
       <c r="L45" t="s">
-        <v>1017</v>
+        <v>1037</v>
       </c>
       <c r="M45" t="s">
         <v>416</v>
@@ -5862,7 +5928,7 @@
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45" t="s">
-        <v>1089</v>
+        <v>1110</v>
       </c>
       <c r="S45" t="s">
         <v>418</v>
@@ -5876,10 +5942,10 @@
         <v>420</v>
       </c>
       <c r="B46" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C46" t="s">
-        <v>834</v>
+        <v>850</v>
       </c>
       <c r="D46" t="s">
         <v>421</v>
@@ -5888,7 +5954,7 @@
         <v>422</v>
       </c>
       <c r="F46" t="s">
-        <v>916</v>
+        <v>935</v>
       </c>
       <c r="G46" t="s">
         <v>423</v>
@@ -5897,7 +5963,7 @@
         <v>424</v>
       </c>
       <c r="I46" t="s">
-        <v>834</v>
+        <v>850</v>
       </c>
       <c r="J46" t="s">
         <v>421</v>
@@ -5906,7 +5972,7 @@
         <v>422</v>
       </c>
       <c r="L46" t="s">
-        <v>1018</v>
+        <v>1038</v>
       </c>
       <c r="M46" t="s">
         <v>425</v>
@@ -5917,7 +5983,7 @@
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>1090</v>
+        <v>1111</v>
       </c>
       <c r="S46" t="s">
         <v>326</v>
@@ -5931,10 +5997,10 @@
         <v>427</v>
       </c>
       <c r="B47" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C47" t="s">
-        <v>835</v>
+        <v>851</v>
       </c>
       <c r="D47" t="s">
         <v>428</v>
@@ -5943,7 +6009,7 @@
         <v>429</v>
       </c>
       <c r="F47" t="s">
-        <v>917</v>
+        <v>936</v>
       </c>
       <c r="G47" t="s">
         <v>430</v>
@@ -5952,7 +6018,7 @@
         <v>431</v>
       </c>
       <c r="I47" t="s">
-        <v>835</v>
+        <v>851</v>
       </c>
       <c r="J47" t="s">
         <v>428</v>
@@ -5961,7 +6027,7 @@
         <v>429</v>
       </c>
       <c r="L47" t="s">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="M47" t="s">
         <v>432</v>
@@ -5972,7 +6038,7 @@
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47" t="s">
-        <v>1091</v>
+        <v>1112</v>
       </c>
       <c r="S47" t="s">
         <v>434</v>
@@ -5986,7 +6052,7 @@
         <v>436</v>
       </c>
       <c r="B48" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="C48" t="s">
         <v>438</v>
@@ -5998,7 +6064,7 @@
         <v>438</v>
       </c>
       <c r="F48" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="G48" t="s">
         <v>439</v>
@@ -6016,7 +6082,7 @@
         <v>438</v>
       </c>
       <c r="L48" t="s">
-        <v>1020</v>
+        <v>1040</v>
       </c>
       <c r="M48" t="s">
         <v>441</v>
@@ -6034,10 +6100,10 @@
         <v>443</v>
       </c>
       <c r="B49" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="C49" t="s">
-        <v>836</v>
+        <v>852</v>
       </c>
       <c r="D49" t="s">
         <v>444</v>
@@ -6046,7 +6112,7 @@
         <v>445</v>
       </c>
       <c r="F49" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
       <c r="G49" t="s">
         <v>446</v>
@@ -6055,7 +6121,7 @@
         <v>447</v>
       </c>
       <c r="I49" t="s">
-        <v>836</v>
+        <v>852</v>
       </c>
       <c r="J49" t="s">
         <v>448</v>
@@ -6064,7 +6130,7 @@
         <v>445</v>
       </c>
       <c r="L49" t="s">
-        <v>1021</v>
+        <v>1041</v>
       </c>
       <c r="M49" t="s">
         <v>449</v>
@@ -6075,7 +6141,7 @@
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>1092</v>
+        <v>1113</v>
       </c>
       <c r="S49" t="s">
         <v>451</v>
@@ -6089,10 +6155,10 @@
         <v>453</v>
       </c>
       <c r="B50" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="C50" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="D50" t="s">
         <v>454</v>
@@ -6101,7 +6167,7 @@
         <v>455</v>
       </c>
       <c r="F50" t="s">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="G50" t="s">
         <v>456</v>
@@ -6110,7 +6176,7 @@
         <v>457</v>
       </c>
       <c r="I50" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="J50" t="s">
         <v>454</v>
@@ -6119,7 +6185,7 @@
         <v>455</v>
       </c>
       <c r="L50" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
       <c r="M50" t="s">
         <v>458</v>
@@ -6130,7 +6196,7 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>1093</v>
+        <v>1114</v>
       </c>
       <c r="S50" t="s">
         <v>460</v>
@@ -6144,10 +6210,10 @@
         <v>462</v>
       </c>
       <c r="B51" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="C51" t="s">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="D51" t="s">
         <v>463</v>
@@ -6156,7 +6222,7 @@
         <v>464</v>
       </c>
       <c r="F51" t="s">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="G51" t="s">
         <v>456</v>
@@ -6165,7 +6231,7 @@
         <v>457</v>
       </c>
       <c r="I51" t="s">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="J51" t="s">
         <v>463</v>
@@ -6174,7 +6240,7 @@
         <v>464</v>
       </c>
       <c r="L51" t="s">
-        <v>1023</v>
+        <v>1043</v>
       </c>
       <c r="M51" t="s">
         <v>465</v>
@@ -6185,7 +6251,7 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>1094</v>
+        <v>1115</v>
       </c>
       <c r="S51" t="s">
         <v>467</v>
@@ -6199,10 +6265,10 @@
         <v>469</v>
       </c>
       <c r="B52" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="C52" t="s">
-        <v>839</v>
+        <v>855</v>
       </c>
       <c r="D52" t="s">
         <v>470</v>
@@ -6211,7 +6277,7 @@
         <v>471</v>
       </c>
       <c r="F52" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="G52" t="s">
         <v>472</v>
@@ -6220,7 +6286,7 @@
         <v>473</v>
       </c>
       <c r="I52" t="s">
-        <v>839</v>
+        <v>855</v>
       </c>
       <c r="J52" t="s">
         <v>470</v>
@@ -6229,7 +6295,7 @@
         <v>471</v>
       </c>
       <c r="L52" t="s">
-        <v>1024</v>
+        <v>1044</v>
       </c>
       <c r="M52" t="s">
         <v>474</v>
@@ -6240,7 +6306,7 @@
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>1093</v>
+        <v>1114</v>
       </c>
       <c r="S52" t="s">
         <v>460</v>
@@ -6254,10 +6320,10 @@
         <v>476</v>
       </c>
       <c r="B53" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="C53" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="D53" t="s">
         <v>477</v>
@@ -6266,7 +6332,7 @@
         <v>478</v>
       </c>
       <c r="F53" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="G53" t="s">
         <v>472</v>
@@ -6275,7 +6341,7 @@
         <v>473</v>
       </c>
       <c r="I53" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="J53" t="s">
         <v>477</v>
@@ -6284,7 +6350,7 @@
         <v>478</v>
       </c>
       <c r="L53" t="s">
-        <v>1024</v>
+        <v>1044</v>
       </c>
       <c r="M53" t="s">
         <v>474</v>
@@ -6295,7 +6361,7 @@
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>1093</v>
+        <v>1114</v>
       </c>
       <c r="S53" t="s">
         <v>460</v>
@@ -6309,10 +6375,10 @@
         <v>479</v>
       </c>
       <c r="B54" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="C54" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="D54" t="s">
         <v>480</v>
@@ -6321,7 +6387,7 @@
         <v>481</v>
       </c>
       <c r="F54" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="G54" t="s">
         <v>472</v>
@@ -6330,7 +6396,7 @@
         <v>473</v>
       </c>
       <c r="I54" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="J54" t="s">
         <v>480</v>
@@ -6339,7 +6405,7 @@
         <v>481</v>
       </c>
       <c r="L54" t="s">
-        <v>1024</v>
+        <v>1044</v>
       </c>
       <c r="M54" t="s">
         <v>474</v>
@@ -6350,7 +6416,7 @@
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54" t="s">
-        <v>1093</v>
+        <v>1114</v>
       </c>
       <c r="S54" t="s">
         <v>460</v>
@@ -6364,10 +6430,10 @@
         <v>482</v>
       </c>
       <c r="B55" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="C55" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="D55" t="s">
         <v>483</v>
@@ -6376,7 +6442,7 @@
         <v>484</v>
       </c>
       <c r="F55" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="G55" t="s">
         <v>472</v>
@@ -6385,7 +6451,7 @@
         <v>473</v>
       </c>
       <c r="I55" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="J55" t="s">
         <v>483</v>
@@ -6394,7 +6460,7 @@
         <v>484</v>
       </c>
       <c r="L55" t="s">
-        <v>1024</v>
+        <v>1044</v>
       </c>
       <c r="M55" t="s">
         <v>474</v>
@@ -6405,7 +6471,7 @@
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55" t="s">
-        <v>1093</v>
+        <v>1114</v>
       </c>
       <c r="S55" t="s">
         <v>460</v>
@@ -6419,10 +6485,10 @@
         <v>485</v>
       </c>
       <c r="B56" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="C56" t="s">
-        <v>487</v>
+        <v>859</v>
       </c>
       <c r="D56" t="s">
         <v>486</v>
@@ -6430,67 +6496,74 @@
       <c r="E56" t="s">
         <v>487</v>
       </c>
-      <c r="G56"/>
-      <c r="H56"/>
+      <c r="F56" t="s">
+        <v>940</v>
+      </c>
+      <c r="G56" t="s">
+        <v>472</v>
+      </c>
+      <c r="H56" t="s">
+        <v>473</v>
+      </c>
       <c r="I56" t="s">
+        <v>859</v>
+      </c>
+      <c r="J56" t="s">
+        <v>486</v>
+      </c>
+      <c r="K56" t="s">
+        <v>487</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M56" t="s">
         <v>488</v>
       </c>
-      <c r="J56" t="s">
-        <v>488</v>
-      </c>
-      <c r="K56" t="s">
-        <v>488</v>
-      </c>
-      <c r="M56"/>
-      <c r="N56"/>
+      <c r="N56" t="s">
+        <v>489</v>
+      </c>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="S56"/>
-      <c r="T56"/>
+      <c r="R56" t="s">
+        <v>1116</v>
+      </c>
+      <c r="S56" t="s">
+        <v>490</v>
+      </c>
+      <c r="T56" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B57" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
       <c r="C57" t="s">
-        <v>843</v>
+        <v>494</v>
       </c>
       <c r="D57" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E57" t="s">
-        <v>491</v>
-      </c>
-      <c r="F57" t="s">
-        <v>922</v>
-      </c>
-      <c r="G57" t="s">
-        <v>492</v>
-      </c>
-      <c r="H57" t="s">
-        <v>493</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
       <c r="I57" t="s">
-        <v>843</v>
+        <v>495</v>
       </c>
       <c r="J57" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K57" t="s">
-        <v>491</v>
-      </c>
-      <c r="L57" t="s">
-        <v>1025</v>
-      </c>
-      <c r="M57" t="s">
-        <v>494</v>
-      </c>
-      <c r="N57" t="s">
         <v>495</v>
       </c>
+      <c r="M57"/>
+      <c r="N57"/>
       <c r="P57"/>
       <c r="Q57"/>
       <c r="S57"/>
@@ -6501,10 +6574,10 @@
         <v>496</v>
       </c>
       <c r="B58" t="s">
-        <v>777</v>
+        <v>802</v>
       </c>
       <c r="C58" t="s">
-        <v>498</v>
+        <v>860</v>
       </c>
       <c r="D58" t="s">
         <v>497</v>
@@ -6512,17 +6585,10 @@
       <c r="E58" t="s">
         <v>498</v>
       </c>
-      <c r="F58" t="s">
-        <v>923</v>
-      </c>
-      <c r="G58" t="s">
-        <v>499</v>
-      </c>
-      <c r="H58" t="s">
-        <v>500</v>
-      </c>
+      <c r="G58"/>
+      <c r="H58"/>
       <c r="I58" t="s">
-        <v>498</v>
+        <v>860</v>
       </c>
       <c r="J58" t="s">
         <v>497</v>
@@ -6530,70 +6596,49 @@
       <c r="K58" t="s">
         <v>498</v>
       </c>
-      <c r="L58" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M58" t="s">
-        <v>501</v>
-      </c>
-      <c r="N58" t="s">
-        <v>502</v>
-      </c>
+      <c r="M58"/>
+      <c r="N58"/>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58" t="s">
-        <v>1095</v>
-      </c>
-      <c r="S58" t="s">
-        <v>503</v>
-      </c>
-      <c r="T58" t="s">
-        <v>504</v>
-      </c>
+      <c r="S58"/>
+      <c r="T58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B59" t="s">
-        <v>773</v>
+        <v>802</v>
       </c>
       <c r="C59" t="s">
-        <v>844</v>
+        <v>861</v>
       </c>
       <c r="D59" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E59" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F59" t="s">
-        <v>924</v>
+        <v>941</v>
       </c>
       <c r="G59" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H59" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="I59" t="s">
-        <v>844</v>
+        <v>861</v>
       </c>
       <c r="J59" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="K59" t="s">
-        <v>507</v>
-      </c>
-      <c r="L59" t="s">
-        <v>1027</v>
-      </c>
-      <c r="M59" t="s">
-        <v>510</v>
-      </c>
-      <c r="N59" t="s">
-        <v>511</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="M59"/>
+      <c r="N59"/>
       <c r="P59"/>
       <c r="Q59"/>
       <c r="S59"/>
@@ -6601,46 +6646,46 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B60" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="C60" t="s">
-        <v>514</v>
+        <v>862</v>
       </c>
       <c r="D60" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E60" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="F60" t="s">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="G60" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="H60" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="I60" t="s">
-        <v>514</v>
+        <v>862</v>
       </c>
       <c r="J60" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="K60" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="L60" t="s">
-        <v>1028</v>
+        <v>1046</v>
       </c>
       <c r="M60" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="N60" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="P60"/>
       <c r="Q60"/>
@@ -6649,149 +6694,149 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B61" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C61" t="s">
-        <v>845</v>
+        <v>513</v>
       </c>
       <c r="D61" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="E61" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F61" t="s">
-        <v>926</v>
+        <v>943</v>
       </c>
       <c r="G61" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H61" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="I61" t="s">
-        <v>845</v>
+        <v>513</v>
       </c>
       <c r="J61" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="K61" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="L61" t="s">
-        <v>1029</v>
+        <v>1047</v>
       </c>
       <c r="M61" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="N61" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="S61"/>
-      <c r="T61"/>
+      <c r="R61" t="s">
+        <v>1117</v>
+      </c>
+      <c r="S61" t="s">
+        <v>518</v>
+      </c>
+      <c r="T61" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>520</v>
+      </c>
+      <c r="B62" t="s">
+        <v>788</v>
+      </c>
+      <c r="C62" t="s">
+        <v>863</v>
+      </c>
+      <c r="D62" t="s">
+        <v>521</v>
+      </c>
+      <c r="E62" t="s">
+        <v>522</v>
+      </c>
+      <c r="F62" t="s">
+        <v>944</v>
+      </c>
+      <c r="G62" t="s">
+        <v>523</v>
+      </c>
+      <c r="H62" t="s">
+        <v>524</v>
+      </c>
+      <c r="I62" t="s">
+        <v>863</v>
+      </c>
+      <c r="J62" t="s">
+        <v>521</v>
+      </c>
+      <c r="K62" t="s">
+        <v>522</v>
+      </c>
+      <c r="L62" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M62" t="s">
+        <v>525</v>
+      </c>
+      <c r="N62" t="s">
         <v>526</v>
-      </c>
-      <c r="B62" t="s">
-        <v>783</v>
-      </c>
-      <c r="C62" t="s">
-        <v>846</v>
-      </c>
-      <c r="D62" t="s">
-        <v>527</v>
-      </c>
-      <c r="E62" t="s">
-        <v>528</v>
-      </c>
-      <c r="F62" t="s">
-        <v>927</v>
-      </c>
-      <c r="G62" t="s">
-        <v>529</v>
-      </c>
-      <c r="H62" t="s">
-        <v>530</v>
-      </c>
-      <c r="I62" t="s">
-        <v>846</v>
-      </c>
-      <c r="J62" t="s">
-        <v>527</v>
-      </c>
-      <c r="K62" t="s">
-        <v>528</v>
-      </c>
-      <c r="L62" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M62" t="s">
-        <v>531</v>
-      </c>
-      <c r="N62" t="s">
-        <v>532</v>
       </c>
       <c r="P62"/>
       <c r="Q62"/>
-      <c r="R62" t="s">
-        <v>1096</v>
-      </c>
-      <c r="S62" t="s">
-        <v>533</v>
-      </c>
-      <c r="T62" t="s">
-        <v>534</v>
-      </c>
+      <c r="S62"/>
+      <c r="T62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B63" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="C63" t="s">
-        <v>847</v>
+        <v>529</v>
       </c>
       <c r="D63" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="E63" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F63" t="s">
-        <v>928</v>
+        <v>945</v>
       </c>
       <c r="G63" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H63" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="I63" t="s">
-        <v>847</v>
+        <v>529</v>
       </c>
       <c r="J63" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="K63" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="L63" t="s">
-        <v>1031</v>
+        <v>1049</v>
       </c>
       <c r="M63" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="N63" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="P63"/>
       <c r="Q63"/>
@@ -6800,46 +6845,46 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B64" t="s">
-        <v>774</v>
+        <v>804</v>
       </c>
       <c r="C64" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="D64" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="E64" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F64" t="s">
-        <v>929</v>
+        <v>946</v>
       </c>
       <c r="G64" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="H64" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="I64" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="J64" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="K64" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="L64" t="s">
-        <v>1032</v>
+        <v>1050</v>
       </c>
       <c r="M64" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="N64" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="P64"/>
       <c r="Q64"/>
@@ -6848,593 +6893,593 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B65" t="s">
-        <v>766</v>
+        <v>798</v>
       </c>
       <c r="C65" t="s">
-        <v>849</v>
+        <v>865</v>
       </c>
       <c r="D65" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E65" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F65" t="s">
-        <v>930</v>
+        <v>947</v>
       </c>
       <c r="G65" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="H65" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="I65" t="s">
-        <v>964</v>
+        <v>865</v>
       </c>
       <c r="J65" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="K65" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="L65" t="s">
-        <v>1033</v>
+        <v>1051</v>
       </c>
       <c r="M65" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="N65" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="P65"/>
       <c r="Q65"/>
       <c r="R65" t="s">
-        <v>1097</v>
+        <v>1118</v>
       </c>
       <c r="S65" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="T65" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B66" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
       <c r="C66" t="s">
-        <v>850</v>
+        <v>866</v>
       </c>
       <c r="D66" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="E66" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="F66" t="s">
-        <v>931</v>
+        <v>948</v>
       </c>
       <c r="G66" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="H66" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="I66" t="s">
-        <v>965</v>
+        <v>866</v>
       </c>
       <c r="J66" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="K66" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="L66" t="s">
-        <v>1034</v>
+        <v>1052</v>
       </c>
       <c r="M66" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="N66" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="R66" t="s">
-        <v>1098</v>
-      </c>
-      <c r="S66" t="s">
-        <v>569</v>
-      </c>
-      <c r="T66" t="s">
-        <v>570</v>
-      </c>
+      <c r="S66"/>
+      <c r="T66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="B67" t="s">
-        <v>766</v>
+        <v>789</v>
       </c>
       <c r="C67" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="D67" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="E67" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="F67" t="s">
-        <v>932</v>
+        <v>949</v>
       </c>
       <c r="G67" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="H67" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="I67" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="J67" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="K67" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="L67" t="s">
-        <v>1035</v>
+        <v>1053</v>
       </c>
       <c r="M67" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="N67" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="P67"/>
       <c r="Q67"/>
-      <c r="R67" t="s">
-        <v>1099</v>
-      </c>
-      <c r="S67" t="s">
-        <v>578</v>
-      </c>
-      <c r="T67" t="s">
-        <v>579</v>
-      </c>
+      <c r="S67"/>
+      <c r="T67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B68" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C68" t="s">
-        <v>852</v>
+        <v>868</v>
       </c>
       <c r="D68" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="E68" t="s">
-        <v>582</v>
-      </c>
-      <c r="G68"/>
-      <c r="H68"/>
+        <v>566</v>
+      </c>
+      <c r="F68" t="s">
+        <v>950</v>
+      </c>
+      <c r="G68" t="s">
+        <v>567</v>
+      </c>
+      <c r="H68" t="s">
+        <v>568</v>
+      </c>
       <c r="I68" t="s">
-        <v>852</v>
+        <v>984</v>
       </c>
       <c r="J68" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="K68" t="s">
-        <v>582</v>
-      </c>
-      <c r="M68"/>
-      <c r="N68"/>
+        <v>570</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M68" t="s">
+        <v>571</v>
+      </c>
+      <c r="N68" t="s">
+        <v>572</v>
+      </c>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="S68"/>
-      <c r="T68"/>
+      <c r="R68" t="s">
+        <v>1119</v>
+      </c>
+      <c r="S68" t="s">
+        <v>573</v>
+      </c>
+      <c r="T68" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>575</v>
+      </c>
+      <c r="B69" t="s">
+        <v>781</v>
+      </c>
+      <c r="C69" t="s">
+        <v>869</v>
+      </c>
+      <c r="D69" t="s">
+        <v>576</v>
+      </c>
+      <c r="E69" t="s">
+        <v>577</v>
+      </c>
+      <c r="F69" t="s">
+        <v>951</v>
+      </c>
+      <c r="G69" t="s">
+        <v>578</v>
+      </c>
+      <c r="H69" t="s">
+        <v>579</v>
+      </c>
+      <c r="I69" t="s">
+        <v>985</v>
+      </c>
+      <c r="J69" t="s">
+        <v>580</v>
+      </c>
+      <c r="K69" t="s">
+        <v>581</v>
+      </c>
+      <c r="L69" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M69" t="s">
+        <v>582</v>
+      </c>
+      <c r="N69" t="s">
         <v>583</v>
-      </c>
-      <c r="B69" t="s">
-        <v>789</v>
-      </c>
-      <c r="C69" t="s">
-        <v>585</v>
-      </c>
-      <c r="D69" t="s">
-        <v>584</v>
-      </c>
-      <c r="E69" t="s">
-        <v>585</v>
-      </c>
-      <c r="F69" t="s">
-        <v>933</v>
-      </c>
-      <c r="G69" t="s">
-        <v>586</v>
-      </c>
-      <c r="H69" t="s">
-        <v>587</v>
-      </c>
-      <c r="I69" t="s">
-        <v>585</v>
-      </c>
-      <c r="J69" t="s">
-        <v>584</v>
-      </c>
-      <c r="K69" t="s">
-        <v>585</v>
-      </c>
-      <c r="L69" t="s">
-        <v>1036</v>
-      </c>
-      <c r="M69" t="s">
-        <v>588</v>
-      </c>
-      <c r="N69" t="s">
-        <v>589</v>
       </c>
       <c r="P69"/>
       <c r="Q69"/>
       <c r="R69" t="s">
-        <v>1100</v>
+        <v>1120</v>
       </c>
       <c r="S69" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="T69" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>586</v>
+      </c>
+      <c r="B70" t="s">
+        <v>781</v>
+      </c>
+      <c r="C70" t="s">
+        <v>870</v>
+      </c>
+      <c r="D70" t="s">
+        <v>587</v>
+      </c>
+      <c r="E70" t="s">
+        <v>588</v>
+      </c>
+      <c r="F70" t="s">
+        <v>952</v>
+      </c>
+      <c r="G70" t="s">
+        <v>589</v>
+      </c>
+      <c r="H70" t="s">
+        <v>590</v>
+      </c>
+      <c r="I70" t="s">
+        <v>870</v>
+      </c>
+      <c r="J70" t="s">
+        <v>587</v>
+      </c>
+      <c r="K70" t="s">
+        <v>588</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M70" t="s">
+        <v>591</v>
+      </c>
+      <c r="N70" t="s">
         <v>592</v>
-      </c>
-      <c r="B70" t="s">
-        <v>766</v>
-      </c>
-      <c r="C70" t="s">
-        <v>853</v>
-      </c>
-      <c r="D70" t="s">
-        <v>593</v>
-      </c>
-      <c r="E70" t="s">
-        <v>594</v>
-      </c>
-      <c r="F70" t="s">
-        <v>934</v>
-      </c>
-      <c r="G70" t="s">
-        <v>595</v>
-      </c>
-      <c r="H70" t="s">
-        <v>596</v>
-      </c>
-      <c r="I70" t="s">
-        <v>853</v>
-      </c>
-      <c r="J70" t="s">
-        <v>593</v>
-      </c>
-      <c r="K70" t="s">
-        <v>594</v>
-      </c>
-      <c r="L70" t="s">
-        <v>1037</v>
-      </c>
-      <c r="M70" t="s">
-        <v>597</v>
-      </c>
-      <c r="N70" t="s">
-        <v>598</v>
       </c>
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70" t="s">
-        <v>1101</v>
+        <v>1121</v>
       </c>
       <c r="S70" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="T70" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B71" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C71" t="s">
-        <v>854</v>
+        <v>871</v>
       </c>
       <c r="D71" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E71" t="s">
-        <v>603</v>
-      </c>
-      <c r="F71" t="s">
-        <v>935</v>
-      </c>
-      <c r="G71" t="s">
-        <v>604</v>
-      </c>
-      <c r="H71" t="s">
-        <v>605</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71"/>
       <c r="I71" t="s">
-        <v>966</v>
+        <v>871</v>
       </c>
       <c r="J71" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="K71" t="s">
-        <v>607</v>
-      </c>
-      <c r="L71" t="s">
-        <v>1038</v>
-      </c>
-      <c r="M71" t="s">
-        <v>608</v>
-      </c>
-      <c r="N71" t="s">
-        <v>609</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="M71"/>
+      <c r="N71"/>
       <c r="P71"/>
       <c r="Q71"/>
-      <c r="R71" t="s">
-        <v>1102</v>
-      </c>
-      <c r="S71" t="s">
-        <v>610</v>
-      </c>
-      <c r="T71" t="s">
-        <v>611</v>
-      </c>
+      <c r="S71"/>
+      <c r="T71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="B72" t="s">
-        <v>766</v>
+        <v>805</v>
       </c>
       <c r="C72" t="s">
-        <v>855</v>
+        <v>600</v>
       </c>
       <c r="D72" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="E72" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="F72" t="s">
-        <v>936</v>
+        <v>953</v>
       </c>
       <c r="G72" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="H72" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="I72" t="s">
-        <v>855</v>
+        <v>600</v>
       </c>
       <c r="J72" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="K72" t="s">
-        <v>614</v>
-      </c>
-      <c r="M72"/>
-      <c r="N72"/>
+        <v>600</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M72" t="s">
+        <v>603</v>
+      </c>
+      <c r="N72" t="s">
+        <v>604</v>
+      </c>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="S72"/>
-      <c r="T72"/>
+      <c r="R72" t="s">
+        <v>1122</v>
+      </c>
+      <c r="S72" t="s">
+        <v>605</v>
+      </c>
+      <c r="T72" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="B73" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="C73" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="D73" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="E73" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="F73" t="s">
-        <v>937</v>
+        <v>954</v>
       </c>
       <c r="G73" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="H73" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="I73" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="J73" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="K73" t="s">
-        <v>620</v>
-      </c>
-      <c r="M73"/>
-      <c r="N73"/>
+        <v>609</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M73" t="s">
+        <v>612</v>
+      </c>
+      <c r="N73" t="s">
+        <v>613</v>
+      </c>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="S73"/>
-      <c r="T73"/>
+      <c r="R73" t="s">
+        <v>1123</v>
+      </c>
+      <c r="S73" t="s">
+        <v>614</v>
+      </c>
+      <c r="T73" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>616</v>
+      </c>
+      <c r="B74" t="s">
+        <v>806</v>
+      </c>
+      <c r="C74" t="s">
+        <v>873</v>
+      </c>
+      <c r="D74" t="s">
+        <v>617</v>
+      </c>
+      <c r="E74" t="s">
+        <v>618</v>
+      </c>
+      <c r="F74" t="s">
+        <v>955</v>
+      </c>
+      <c r="G74" t="s">
+        <v>619</v>
+      </c>
+      <c r="H74" t="s">
+        <v>620</v>
+      </c>
+      <c r="I74" t="s">
+        <v>986</v>
+      </c>
+      <c r="J74" t="s">
+        <v>621</v>
+      </c>
+      <c r="K74" t="s">
+        <v>622</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M74" t="s">
         <v>623</v>
       </c>
-      <c r="B74" t="s">
-        <v>766</v>
-      </c>
-      <c r="C74" t="s">
-        <v>857</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="N74" t="s">
         <v>624</v>
-      </c>
-      <c r="E74" t="s">
-        <v>625</v>
-      </c>
-      <c r="F74" t="s">
-        <v>938</v>
-      </c>
-      <c r="G74" t="s">
-        <v>626</v>
-      </c>
-      <c r="H74" t="s">
-        <v>627</v>
-      </c>
-      <c r="I74" t="s">
-        <v>857</v>
-      </c>
-      <c r="J74" t="s">
-        <v>624</v>
-      </c>
-      <c r="K74" t="s">
-        <v>625</v>
-      </c>
-      <c r="L74" t="s">
-        <v>1039</v>
-      </c>
-      <c r="M74" t="s">
-        <v>628</v>
-      </c>
-      <c r="N74" t="s">
-        <v>629</v>
       </c>
       <c r="P74"/>
       <c r="Q74"/>
       <c r="R74" t="s">
-        <v>1103</v>
+        <v>1124</v>
       </c>
       <c r="S74" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="T74" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>627</v>
+      </c>
+      <c r="B75" t="s">
+        <v>781</v>
+      </c>
+      <c r="C75" t="s">
+        <v>874</v>
+      </c>
+      <c r="D75" t="s">
+        <v>628</v>
+      </c>
+      <c r="E75" t="s">
+        <v>629</v>
+      </c>
+      <c r="F75" t="s">
+        <v>956</v>
+      </c>
+      <c r="G75" t="s">
+        <v>630</v>
+      </c>
+      <c r="H75" t="s">
+        <v>631</v>
+      </c>
+      <c r="I75" t="s">
+        <v>874</v>
+      </c>
+      <c r="J75" t="s">
         <v>632</v>
       </c>
-      <c r="B75" t="s">
-        <v>792</v>
-      </c>
-      <c r="C75" t="s">
-        <v>858</v>
-      </c>
-      <c r="D75" t="s">
-        <v>633</v>
-      </c>
-      <c r="E75" t="s">
-        <v>634</v>
-      </c>
-      <c r="F75" t="s">
-        <v>939</v>
-      </c>
-      <c r="G75" t="s">
-        <v>635</v>
-      </c>
-      <c r="H75" t="s">
-        <v>636</v>
-      </c>
-      <c r="I75" t="s">
-        <v>967</v>
-      </c>
-      <c r="J75" t="s">
-        <v>637</v>
-      </c>
       <c r="K75" t="s">
-        <v>638</v>
-      </c>
-      <c r="L75" t="s">
-        <v>1040</v>
-      </c>
-      <c r="M75" t="s">
-        <v>639</v>
-      </c>
-      <c r="N75" t="s">
-        <v>640</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="M75"/>
+      <c r="N75"/>
       <c r="P75"/>
       <c r="Q75"/>
-      <c r="R75" t="s">
-        <v>1104</v>
-      </c>
-      <c r="S75" t="s">
-        <v>641</v>
-      </c>
-      <c r="T75" t="s">
-        <v>642</v>
-      </c>
+      <c r="S75"/>
+      <c r="T75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B76" t="s">
-        <v>793</v>
+        <v>807</v>
       </c>
       <c r="C76" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="D76" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="E76" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F76" t="s">
-        <v>940</v>
+        <v>957</v>
       </c>
       <c r="G76" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="H76" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="I76" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="J76" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="K76" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="M76"/>
       <c r="N76"/>
@@ -7445,133 +7490,147 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B77" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C77" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="D77" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="E77" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="F77" t="s">
-        <v>941</v>
+        <v>958</v>
       </c>
       <c r="G77" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="H77" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="I77" t="s">
-        <v>968</v>
+        <v>876</v>
       </c>
       <c r="J77" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="K77" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="L77" t="s">
-        <v>1041</v>
+        <v>1060</v>
       </c>
       <c r="M77" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="N77" t="s">
-        <v>656</v>
-      </c>
-      <c r="O77" t="s">
-        <v>1050</v>
-      </c>
-      <c r="P77" t="s">
-        <v>657</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>658</v>
-      </c>
-      <c r="S77"/>
-      <c r="T77"/>
+        <v>644</v>
+      </c>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77" t="s">
+        <v>1125</v>
+      </c>
+      <c r="S77" t="s">
+        <v>645</v>
+      </c>
+      <c r="T77" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B78" t="s">
-        <v>766</v>
+        <v>808</v>
       </c>
       <c r="C78" t="s">
-        <v>661</v>
+        <v>877</v>
       </c>
       <c r="D78" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="E78" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="F78" t="s">
-        <v>942</v>
+        <v>959</v>
       </c>
       <c r="G78" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="H78" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="I78" t="s">
-        <v>969</v>
+        <v>987</v>
       </c>
       <c r="J78" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="K78" t="s">
-        <v>665</v>
-      </c>
-      <c r="M78"/>
-      <c r="N78"/>
+        <v>653</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M78" t="s">
+        <v>654</v>
+      </c>
+      <c r="N78" t="s">
+        <v>655</v>
+      </c>
       <c r="P78"/>
       <c r="Q78"/>
-      <c r="S78"/>
-      <c r="T78"/>
+      <c r="R78" t="s">
+        <v>1126</v>
+      </c>
+      <c r="S78" t="s">
+        <v>656</v>
+      </c>
+      <c r="T78" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B79" t="s">
-        <v>766</v>
+        <v>809</v>
       </c>
       <c r="C79" t="s">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="D79" t="s">
-        <v>175</v>
+        <v>659</v>
       </c>
       <c r="E79" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F79" t="s">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="G79" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="H79" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="I79" t="s">
-        <v>488</v>
+        <v>878</v>
       </c>
       <c r="J79" t="s">
-        <v>488</v>
+        <v>659</v>
       </c>
       <c r="K79" t="s">
-        <v>488</v>
+        <v>660</v>
       </c>
       <c r="M79"/>
       <c r="N79"/>
@@ -7582,126 +7641,133 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>663</v>
+      </c>
+      <c r="B80" t="s">
+        <v>781</v>
+      </c>
+      <c r="C80" t="s">
+        <v>879</v>
+      </c>
+      <c r="D80" t="s">
+        <v>664</v>
+      </c>
+      <c r="E80" t="s">
+        <v>665</v>
+      </c>
+      <c r="F80" t="s">
+        <v>961</v>
+      </c>
+      <c r="G80" t="s">
+        <v>666</v>
+      </c>
+      <c r="H80" t="s">
+        <v>667</v>
+      </c>
+      <c r="I80" t="s">
+        <v>988</v>
+      </c>
+      <c r="J80" t="s">
+        <v>668</v>
+      </c>
+      <c r="K80" t="s">
+        <v>669</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1062</v>
+      </c>
+      <c r="M80" t="s">
         <v>670</v>
       </c>
-      <c r="B80" t="s">
-        <v>770</v>
-      </c>
-      <c r="C80" t="s">
-        <v>862</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="N80" t="s">
         <v>671</v>
       </c>
-      <c r="E80" t="s">
+      <c r="O80" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P80" t="s">
         <v>672</v>
       </c>
-      <c r="F80" t="s">
-        <v>944</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="Q80" t="s">
         <v>673</v>
       </c>
-      <c r="H80" t="s">
-        <v>674</v>
-      </c>
-      <c r="I80" t="s">
-        <v>970</v>
-      </c>
-      <c r="J80" t="s">
-        <v>675</v>
-      </c>
-      <c r="K80" t="s">
-        <v>676</v>
-      </c>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
       <c r="S80"/>
       <c r="T80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>674</v>
+      </c>
+      <c r="B81" t="s">
+        <v>781</v>
+      </c>
+      <c r="C81" t="s">
+        <v>676</v>
+      </c>
+      <c r="D81" t="s">
+        <v>675</v>
+      </c>
+      <c r="E81" t="s">
+        <v>676</v>
+      </c>
+      <c r="F81" t="s">
+        <v>962</v>
+      </c>
+      <c r="G81" t="s">
         <v>677</v>
       </c>
-      <c r="B81" t="s">
-        <v>766</v>
-      </c>
-      <c r="C81" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" t="s">
-        <v>118</v>
-      </c>
-      <c r="E81" t="s">
-        <v>119</v>
-      </c>
-      <c r="F81" t="s">
-        <v>945</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>678</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
+        <v>989</v>
+      </c>
+      <c r="J81" t="s">
         <v>679</v>
       </c>
-      <c r="I81" t="s">
-        <v>971</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>680</v>
       </c>
-      <c r="K81" t="s">
-        <v>681</v>
-      </c>
-      <c r="L81" t="s">
-        <v>1042</v>
-      </c>
-      <c r="M81" t="s">
-        <v>682</v>
-      </c>
-      <c r="N81" t="s">
-        <v>683</v>
-      </c>
-      <c r="O81" t="s">
-        <v>1051</v>
-      </c>
-      <c r="P81" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>685</v>
-      </c>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
       <c r="S81"/>
       <c r="T81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B82" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C82" t="s">
-        <v>863</v>
+        <v>880</v>
       </c>
       <c r="D82" t="s">
-        <v>687</v>
+        <v>175</v>
       </c>
       <c r="E82" t="s">
-        <v>688</v>
-      </c>
-      <c r="G82"/>
-      <c r="H82"/>
+        <v>682</v>
+      </c>
+      <c r="F82" t="s">
+        <v>963</v>
+      </c>
+      <c r="G82" t="s">
+        <v>683</v>
+      </c>
+      <c r="H82" t="s">
+        <v>684</v>
+      </c>
       <c r="I82" t="s">
-        <v>972</v>
+        <v>495</v>
       </c>
       <c r="J82" t="s">
-        <v>689</v>
+        <v>495</v>
       </c>
       <c r="K82" t="s">
-        <v>690</v>
+        <v>495</v>
       </c>
       <c r="M82"/>
       <c r="N82"/>
@@ -7712,30 +7778,37 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>685</v>
+      </c>
+      <c r="B83" t="s">
+        <v>785</v>
+      </c>
+      <c r="C83" t="s">
+        <v>881</v>
+      </c>
+      <c r="D83" t="s">
+        <v>686</v>
+      </c>
+      <c r="E83" t="s">
+        <v>687</v>
+      </c>
+      <c r="F83" t="s">
+        <v>964</v>
+      </c>
+      <c r="G83" t="s">
+        <v>688</v>
+      </c>
+      <c r="H83" t="s">
+        <v>689</v>
+      </c>
+      <c r="I83" t="s">
+        <v>990</v>
+      </c>
+      <c r="J83" t="s">
+        <v>690</v>
+      </c>
+      <c r="K83" t="s">
         <v>691</v>
-      </c>
-      <c r="B83" t="s">
-        <v>766</v>
-      </c>
-      <c r="C83" t="s">
-        <v>864</v>
-      </c>
-      <c r="D83" t="s">
-        <v>692</v>
-      </c>
-      <c r="E83" t="s">
-        <v>693</v>
-      </c>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83" t="s">
-        <v>973</v>
-      </c>
-      <c r="J83" t="s">
-        <v>694</v>
-      </c>
-      <c r="K83" t="s">
-        <v>695</v>
       </c>
       <c r="M83"/>
       <c r="N83"/>
@@ -7746,65 +7819,86 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>692</v>
+      </c>
+      <c r="B84" t="s">
+        <v>781</v>
+      </c>
+      <c r="C84" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" t="s">
+        <v>118</v>
+      </c>
+      <c r="E84" t="s">
+        <v>119</v>
+      </c>
+      <c r="F84" t="s">
+        <v>965</v>
+      </c>
+      <c r="G84" t="s">
+        <v>693</v>
+      </c>
+      <c r="H84" t="s">
+        <v>694</v>
+      </c>
+      <c r="I84" t="s">
+        <v>991</v>
+      </c>
+      <c r="J84" t="s">
+        <v>695</v>
+      </c>
+      <c r="K84" t="s">
         <v>696</v>
       </c>
-      <c r="B84" t="s">
-        <v>766</v>
-      </c>
-      <c r="C84" t="s">
-        <v>865</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="L84" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M84" t="s">
         <v>697</v>
       </c>
-      <c r="E84" t="s">
+      <c r="N84" t="s">
         <v>698</v>
       </c>
-      <c r="F84" t="s">
-        <v>946</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="O84" t="s">
+        <v>1072</v>
+      </c>
+      <c r="P84" t="s">
         <v>699</v>
       </c>
-      <c r="H84" t="s">
+      <c r="Q84" t="s">
         <v>700</v>
       </c>
-      <c r="I84" t="s">
-        <v>974</v>
-      </c>
-      <c r="J84" t="s">
-        <v>701</v>
-      </c>
-      <c r="K84" t="s">
-        <v>702</v>
-      </c>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
       <c r="S84"/>
       <c r="T84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>701</v>
+      </c>
+      <c r="B85" t="s">
+        <v>781</v>
+      </c>
+      <c r="C85" t="s">
+        <v>882</v>
+      </c>
+      <c r="D85" t="s">
+        <v>702</v>
+      </c>
+      <c r="E85" t="s">
         <v>703</v>
-      </c>
-      <c r="B85" t="s">
-        <v>766</v>
-      </c>
-      <c r="C85" t="s">
-        <v>866</v>
-      </c>
-      <c r="D85" t="s">
-        <v>704</v>
-      </c>
-      <c r="E85" t="s">
-        <v>705</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
-      <c r="J85"/>
-      <c r="K85"/>
+      <c r="I85" t="s">
+        <v>992</v>
+      </c>
+      <c r="J85" t="s">
+        <v>704</v>
+      </c>
+      <c r="K85" t="s">
+        <v>705</v>
+      </c>
       <c r="M85"/>
       <c r="N85"/>
       <c r="P85"/>
@@ -7817,10 +7911,10 @@
         <v>706</v>
       </c>
       <c r="B86" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C86" t="s">
-        <v>708</v>
+        <v>883</v>
       </c>
       <c r="D86" t="s">
         <v>707</v>
@@ -7831,7 +7925,7 @@
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86" t="s">
-        <v>975</v>
+        <v>993</v>
       </c>
       <c r="J86" t="s">
         <v>709</v>
@@ -7851,27 +7945,34 @@
         <v>711</v>
       </c>
       <c r="B87" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="C87" t="s">
-        <v>863</v>
+        <v>884</v>
       </c>
       <c r="D87" t="s">
-        <v>687</v>
+        <v>712</v>
       </c>
       <c r="E87" t="s">
-        <v>688</v>
-      </c>
-      <c r="G87"/>
-      <c r="H87"/>
+        <v>713</v>
+      </c>
+      <c r="F87" t="s">
+        <v>966</v>
+      </c>
+      <c r="G87" t="s">
+        <v>714</v>
+      </c>
+      <c r="H87" t="s">
+        <v>715</v>
+      </c>
       <c r="I87" t="s">
-        <v>976</v>
+        <v>994</v>
       </c>
       <c r="J87" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="K87" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="M87"/>
       <c r="N87"/>
@@ -7882,68 +7983,40 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B88" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="C88" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
       <c r="D88" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="E88" t="s">
-        <v>716</v>
-      </c>
-      <c r="F88" t="s">
-        <v>947</v>
-      </c>
-      <c r="G88" t="s">
-        <v>717</v>
-      </c>
-      <c r="H88" t="s">
-        <v>718</v>
-      </c>
-      <c r="I88" t="s">
-        <v>867</v>
-      </c>
-      <c r="J88" t="s">
-        <v>715</v>
-      </c>
-      <c r="K88" t="s">
-        <v>716</v>
-      </c>
-      <c r="L88" t="s">
-        <v>1043</v>
-      </c>
-      <c r="M88" t="s">
-        <v>719</v>
-      </c>
-      <c r="N88" t="s">
         <v>720</v>
       </c>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="M88"/>
+      <c r="N88"/>
       <c r="P88"/>
       <c r="Q88"/>
-      <c r="R88" t="s">
-        <v>1096</v>
-      </c>
-      <c r="S88" t="s">
-        <v>533</v>
-      </c>
-      <c r="T88" t="s">
-        <v>534</v>
-      </c>
+      <c r="S88"/>
+      <c r="T88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>721</v>
       </c>
       <c r="B89" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="C89" t="s">
-        <v>868</v>
+        <v>723</v>
       </c>
       <c r="D89" t="s">
         <v>722</v>
@@ -7951,23 +8024,16 @@
       <c r="E89" t="s">
         <v>723</v>
       </c>
-      <c r="F89" t="s">
-        <v>948</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89" t="s">
+        <v>995</v>
+      </c>
+      <c r="J89" t="s">
         <v>724</v>
       </c>
-      <c r="H89" t="s">
+      <c r="K89" t="s">
         <v>725</v>
-      </c>
-      <c r="I89" t="s">
-        <v>868</v>
-      </c>
-      <c r="J89" t="s">
-        <v>722</v>
-      </c>
-      <c r="K89" t="s">
-        <v>723</v>
       </c>
       <c r="M89"/>
       <c r="N89"/>
@@ -7981,239 +8047,369 @@
         <v>726</v>
       </c>
       <c r="B90" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="C90" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="D90" t="s">
+        <v>702</v>
+      </c>
+      <c r="E90" t="s">
+        <v>703</v>
+      </c>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90" t="s">
+        <v>996</v>
+      </c>
+      <c r="J90" t="s">
         <v>727</v>
       </c>
-      <c r="E90" t="s">
+      <c r="K90" t="s">
         <v>728</v>
       </c>
-      <c r="F90" t="s">
-        <v>949</v>
-      </c>
-      <c r="G90" t="s">
-        <v>729</v>
-      </c>
-      <c r="H90" t="s">
-        <v>730</v>
-      </c>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90" t="s">
-        <v>1044</v>
-      </c>
-      <c r="M90" t="s">
-        <v>731</v>
-      </c>
-      <c r="N90" t="s">
-        <v>732</v>
-      </c>
+      <c r="M90"/>
+      <c r="N90"/>
       <c r="P90"/>
       <c r="Q90"/>
-      <c r="R90" t="s">
-        <v>1105</v>
-      </c>
-      <c r="S90" t="s">
-        <v>733</v>
-      </c>
-      <c r="T90" t="s">
-        <v>734</v>
-      </c>
+      <c r="S90"/>
+      <c r="T90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>729</v>
+      </c>
+      <c r="B91" t="s">
+        <v>810</v>
+      </c>
+      <c r="C91" t="s">
+        <v>886</v>
+      </c>
+      <c r="D91" t="s">
+        <v>730</v>
+      </c>
+      <c r="E91" t="s">
+        <v>731</v>
+      </c>
+      <c r="F91" t="s">
+        <v>967</v>
+      </c>
+      <c r="G91" t="s">
+        <v>732</v>
+      </c>
+      <c r="H91" t="s">
+        <v>733</v>
+      </c>
+      <c r="I91" t="s">
+        <v>886</v>
+      </c>
+      <c r="J91" t="s">
+        <v>730</v>
+      </c>
+      <c r="K91" t="s">
+        <v>731</v>
+      </c>
+      <c r="L91" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M91" t="s">
+        <v>734</v>
+      </c>
+      <c r="N91" t="s">
         <v>735</v>
-      </c>
-      <c r="B91" t="s">
-        <v>796</v>
-      </c>
-      <c r="C91" t="s">
-        <v>870</v>
-      </c>
-      <c r="D91" t="s">
-        <v>736</v>
-      </c>
-      <c r="E91" t="s">
-        <v>737</v>
-      </c>
-      <c r="F91" t="s">
-        <v>950</v>
-      </c>
-      <c r="G91" t="s">
-        <v>738</v>
-      </c>
-      <c r="H91" t="s">
-        <v>739</v>
-      </c>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M91" t="s">
-        <v>740</v>
-      </c>
-      <c r="N91" t="s">
-        <v>741</v>
       </c>
       <c r="P91"/>
       <c r="Q91"/>
       <c r="R91" t="s">
-        <v>1105</v>
+        <v>1118</v>
       </c>
       <c r="S91" t="s">
-        <v>733</v>
+        <v>548</v>
       </c>
       <c r="T91" t="s">
-        <v>734</v>
+        <v>549</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B92" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="C92" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="D92" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E92" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F92" t="s">
-        <v>951</v>
+        <v>968</v>
       </c>
       <c r="G92" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="H92" t="s">
-        <v>746</v>
-      </c>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="L92" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M92" t="s">
         <v>740</v>
       </c>
-      <c r="N92" t="s">
-        <v>741</v>
-      </c>
+      <c r="I92" t="s">
+        <v>887</v>
+      </c>
+      <c r="J92" t="s">
+        <v>737</v>
+      </c>
+      <c r="K92" t="s">
+        <v>738</v>
+      </c>
+      <c r="M92"/>
+      <c r="N92"/>
       <c r="P92"/>
       <c r="Q92"/>
-      <c r="R92" t="s">
-        <v>1105</v>
-      </c>
-      <c r="S92" t="s">
-        <v>733</v>
-      </c>
-      <c r="T92" t="s">
-        <v>734</v>
-      </c>
+      <c r="S92"/>
+      <c r="T92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B93" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="C93" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="D93" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="E93" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F93" t="s">
-        <v>952</v>
+        <v>969</v>
       </c>
       <c r="G93" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="H93" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="s">
-        <v>1046</v>
+        <v>1065</v>
       </c>
       <c r="M93" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="N93" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="P93"/>
       <c r="Q93"/>
       <c r="R93" t="s">
-        <v>1105</v>
+        <v>1127</v>
       </c>
       <c r="S93" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="T93" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>750</v>
+      </c>
+      <c r="B94" t="s">
+        <v>812</v>
+      </c>
+      <c r="C94" t="s">
+        <v>889</v>
+      </c>
+      <c r="D94" t="s">
+        <v>751</v>
+      </c>
+      <c r="E94" t="s">
+        <v>752</v>
+      </c>
+      <c r="F94" t="s">
+        <v>970</v>
+      </c>
+      <c r="G94" t="s">
+        <v>753</v>
+      </c>
+      <c r="H94" t="s">
         <v>754</v>
-      </c>
-      <c r="B94" t="s">
-        <v>797</v>
-      </c>
-      <c r="C94" t="s">
-        <v>873</v>
-      </c>
-      <c r="D94" t="s">
-        <v>755</v>
-      </c>
-      <c r="E94" t="s">
-        <v>756</v>
-      </c>
-      <c r="F94" t="s">
-        <v>953</v>
-      </c>
-      <c r="G94" t="s">
-        <v>757</v>
-      </c>
-      <c r="H94" t="s">
-        <v>758</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="s">
-        <v>1047</v>
+        <v>1066</v>
       </c>
       <c r="M94" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="N94" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="P94"/>
       <c r="Q94"/>
       <c r="R94" t="s">
-        <v>1105</v>
+        <v>1127</v>
       </c>
       <c r="S94" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="T94" t="s">
-        <v>734</v>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>757</v>
+      </c>
+      <c r="B95" t="s">
+        <v>812</v>
+      </c>
+      <c r="C95" t="s">
+        <v>890</v>
+      </c>
+      <c r="D95" t="s">
+        <v>758</v>
+      </c>
+      <c r="E95" t="s">
+        <v>759</v>
+      </c>
+      <c r="F95" t="s">
+        <v>971</v>
+      </c>
+      <c r="G95" t="s">
+        <v>760</v>
+      </c>
+      <c r="H95" t="s">
+        <v>761</v>
+      </c>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M95" t="s">
+        <v>755</v>
+      </c>
+      <c r="N95" t="s">
+        <v>756</v>
+      </c>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95" t="s">
+        <v>1127</v>
+      </c>
+      <c r="S95" t="s">
+        <v>748</v>
+      </c>
+      <c r="T95" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>762</v>
+      </c>
+      <c r="B96" t="s">
+        <v>813</v>
+      </c>
+      <c r="C96" t="s">
+        <v>891</v>
+      </c>
+      <c r="D96" t="s">
+        <v>763</v>
+      </c>
+      <c r="E96" t="s">
+        <v>764</v>
+      </c>
+      <c r="F96" t="s">
+        <v>972</v>
+      </c>
+      <c r="G96" t="s">
+        <v>765</v>
+      </c>
+      <c r="H96" t="s">
+        <v>766</v>
+      </c>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M96" t="s">
+        <v>767</v>
+      </c>
+      <c r="N96" t="s">
+        <v>768</v>
+      </c>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96" t="s">
+        <v>1127</v>
+      </c>
+      <c r="S96" t="s">
+        <v>748</v>
+      </c>
+      <c r="T96" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>769</v>
+      </c>
+      <c r="B97" t="s">
+        <v>813</v>
+      </c>
+      <c r="C97" t="s">
+        <v>892</v>
+      </c>
+      <c r="D97" t="s">
+        <v>770</v>
+      </c>
+      <c r="E97" t="s">
+        <v>771</v>
+      </c>
+      <c r="F97" t="s">
+        <v>973</v>
+      </c>
+      <c r="G97" t="s">
+        <v>772</v>
+      </c>
+      <c r="H97" t="s">
+        <v>773</v>
+      </c>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M97" t="s">
+        <v>774</v>
+      </c>
+      <c r="N97" t="s">
+        <v>775</v>
+      </c>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97" t="s">
+        <v>1127</v>
+      </c>
+      <c r="S97" t="s">
+        <v>748</v>
+      </c>
+      <c r="T97" t="s">
+        <v>749</v>
       </c>
     </row>
   </sheetData>

--- a/new original/_Lang_Chinese/Lang/CN/Game/Stat.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/Stat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="1132">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.260</t>
+    <t xml:space="preserve">EA 23.267</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
@@ -1355,19 +1355,16 @@
     <t xml:space="preserve">82</t>
   </si>
   <si>
-    <t xml:space="preserve">Death Sentense</t>
+    <t xml:space="preserve">Death Sentence</t>
   </si>
   <si>
     <t xml:space="preserve">死の宣告</t>
   </si>
   <si>
-    <t xml:space="preserve">Hex that causes death after a certain period of time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一定時間後に死ぬ呪い。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death Sentence</t>
+    <t xml:space="preserve">Sentence that causes death after a certain period of time. It can be lifted by leaving the current map or destroying the sentenser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一定時間後に死ぬ宣告。現在のマップを離れるか、宣告者を破壊することで解除される。</t>
   </si>
   <si>
     <t xml:space="preserve">#1 are/is sentenced to death.</t>
@@ -1376,12 +1373,6 @@
     <t xml:space="preserve">#1は死を宣告された。</t>
   </si>
   <si>
-    <t xml:space="preserve">Death embraces #1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">死は#1を迎え入れた。</t>
-  </si>
-  <si>
     <t xml:space="preserve">67</t>
   </si>
   <si>
@@ -1533,6 +1524,21 @@
   </si>
   <si>
     <t xml:space="preserve">攻撃が必ずクリティカルヒットになる状態。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental Barrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">心の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition where telekinesis has reduced effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テレキネシスの影響を受けにくくなる状態。</t>
   </si>
   <si>
     <t xml:space="preserve">50</t>
@@ -2436,7 +2442,7 @@
     <t xml:space="preserve">EA 23.12 fix 1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.261</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.64</t>
@@ -2457,6 +2463,9 @@
     <t xml:space="preserve">EA 23.239</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.264</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 20.48</t>
   </si>
   <si>
@@ -2631,6 +2640,9 @@
     <t xml:space="preserve">偷袭</t>
   </si>
   <si>
+    <t xml:space="preserve">心之壁</t>
+  </si>
+  <si>
     <t xml:space="preserve">瘴气</t>
   </si>
   <si>
@@ -2859,7 +2871,7 @@
     <t xml:space="preserve">不会受伤的加护。</t>
   </si>
   <si>
-    <t xml:space="preserve">一定时间后死亡的诅咒。</t>
+    <t xml:space="preserve">一定时间后死亡的宣告。离开当前地图，或者破坏宣告者就可以解除。</t>
   </si>
   <si>
     <t xml:space="preserve">觉醒真正力量的加护。</t>
@@ -2869,6 +2881,9 @@
   </si>
   <si>
     <t xml:space="preserve">攻击必定暴击的状态。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不易受到念力影响的状态。</t>
   </si>
   <si>
     <t xml:space="preserve">持续夺走体力的诅咒。</t>
@@ -3396,9 +3411,6 @@
   </si>
   <si>
     <t xml:space="preserve">#1感觉变得愚蠢了。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">死亡拥抱了#1。</t>
   </si>
   <si>
     <t xml:space="preserve">#1恢复了原状。</t>
@@ -3612,10 +3624,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C3" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -3624,7 +3636,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -3633,7 +3645,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -3642,7 +3654,7 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -3653,7 +3665,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -3667,10 +3679,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C4" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -3679,7 +3691,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -3688,7 +3700,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -3697,7 +3709,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3708,7 +3720,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="S4" t="s">
         <v>39</v>
@@ -3722,10 +3734,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C5" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3734,7 +3746,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -3743,7 +3755,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -3752,7 +3764,7 @@
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -3763,7 +3775,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="S5" t="s">
         <v>48</v>
@@ -3777,10 +3789,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C6" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -3789,7 +3801,7 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -3798,7 +3810,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
@@ -3807,7 +3819,7 @@
         <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="M6" t="s">
         <v>55</v>
@@ -3818,7 +3830,7 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="S6" t="s">
         <v>57</v>
@@ -3832,10 +3844,10 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C7" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -3844,7 +3856,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
@@ -3853,7 +3865,7 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="J7" t="s">
         <v>60</v>
@@ -3862,7 +3874,7 @@
         <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="M7" t="s">
         <v>64</v>
@@ -3873,7 +3885,7 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="S7" t="s">
         <v>66</v>
@@ -3887,10 +3899,10 @@
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C8" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
@@ -3899,7 +3911,7 @@
         <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -3908,7 +3920,7 @@
         <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="J8" t="s">
         <v>69</v>
@@ -3917,7 +3929,7 @@
         <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="M8" t="s">
         <v>73</v>
@@ -3928,7 +3940,7 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="S8" t="s">
         <v>66</v>
@@ -3942,7 +3954,7 @@
         <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -3954,7 +3966,7 @@
         <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="G9" t="s">
         <v>78</v>
@@ -3963,7 +3975,7 @@
         <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -3972,7 +3984,7 @@
         <v>81</v>
       </c>
       <c r="L9" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -3981,7 +3993,7 @@
         <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="P9" t="s">
         <v>84</v>
@@ -3990,7 +4002,7 @@
         <v>85</v>
       </c>
       <c r="R9" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="S9" t="s">
         <v>86</v>
@@ -4004,10 +4016,10 @@
         <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C10" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D10" t="s">
         <v>89</v>
@@ -4016,7 +4028,7 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="G10" t="s">
         <v>91</v>
@@ -4025,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="J10" t="s">
         <v>93</v>
@@ -4034,7 +4046,7 @@
         <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="M10" t="s">
         <v>95</v>
@@ -4043,7 +4055,7 @@
         <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="P10" t="s">
         <v>97</v>
@@ -4059,10 +4071,10 @@
         <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C11" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D11" t="s">
         <v>100</v>
@@ -4071,7 +4083,7 @@
         <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="G11" t="s">
         <v>102</v>
@@ -4080,7 +4092,7 @@
         <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="J11" t="s">
         <v>100</v>
@@ -4089,7 +4101,7 @@
         <v>101</v>
       </c>
       <c r="L11" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="M11" t="s">
         <v>104</v>
@@ -4100,7 +4112,7 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="S11" t="s">
         <v>106</v>
@@ -4114,10 +4126,10 @@
         <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C12" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -4126,7 +4138,7 @@
         <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="G12" t="s">
         <v>111</v>
@@ -4135,7 +4147,7 @@
         <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="J12" t="s">
         <v>109</v>
@@ -4144,7 +4156,7 @@
         <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="M12" t="s">
         <v>113</v>
@@ -4155,7 +4167,7 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="S12" t="s">
         <v>115</v>
@@ -4169,7 +4181,7 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C13" t="s">
         <v>119</v>
@@ -4181,7 +4193,7 @@
         <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="G13" t="s">
         <v>120</v>
@@ -4199,7 +4211,7 @@
         <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="M13" t="s">
         <v>123</v>
@@ -4210,7 +4222,7 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="S13" t="s">
         <v>125</v>
@@ -4224,10 +4236,10 @@
         <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C14" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="D14" t="s">
         <v>128</v>
@@ -4236,7 +4248,7 @@
         <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="G14" t="s">
         <v>130</v>
@@ -4245,7 +4257,7 @@
         <v>131</v>
       </c>
       <c r="I14" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="J14" t="s">
         <v>132</v>
@@ -4254,7 +4266,7 @@
         <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="M14" t="s">
         <v>133</v>
@@ -4265,7 +4277,7 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="S14" t="s">
         <v>135</v>
@@ -4279,7 +4291,7 @@
         <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C15" t="s">
         <v>139</v>
@@ -4291,7 +4303,7 @@
         <v>139</v>
       </c>
       <c r="F15" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="G15" t="s">
         <v>140</v>
@@ -4309,7 +4321,7 @@
         <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="M15" t="s">
         <v>143</v>
@@ -4320,7 +4332,7 @@
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="S15" t="s">
         <v>145</v>
@@ -4334,10 +4346,10 @@
         <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C16" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D16" t="s">
         <v>148</v>
@@ -4346,7 +4358,7 @@
         <v>149</v>
       </c>
       <c r="F16" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="G16" t="s">
         <v>130</v>
@@ -4355,7 +4367,7 @@
         <v>131</v>
       </c>
       <c r="I16" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="J16" t="s">
         <v>150</v>
@@ -4364,7 +4376,7 @@
         <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="M16" t="s">
         <v>151</v>
@@ -4375,7 +4387,7 @@
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="S16" t="s">
         <v>153</v>
@@ -4389,7 +4401,7 @@
         <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C17" t="s">
         <v>157</v>
@@ -4401,7 +4413,7 @@
         <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="G17" t="s">
         <v>158</v>
@@ -4419,7 +4431,7 @@
         <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="M17" t="s">
         <v>161</v>
@@ -4430,7 +4442,7 @@
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="S17" t="s">
         <v>163</v>
@@ -4444,10 +4456,10 @@
         <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C18" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="D18" t="s">
         <v>166</v>
@@ -4456,7 +4468,7 @@
         <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="G18" t="s">
         <v>168</v>
@@ -4465,7 +4477,7 @@
         <v>169</v>
       </c>
       <c r="I18" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="J18" t="s">
         <v>166</v>
@@ -4474,7 +4486,7 @@
         <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="M18" t="s">
         <v>170</v>
@@ -4485,7 +4497,7 @@
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="S18" t="s">
         <v>172</v>
@@ -4499,10 +4511,10 @@
         <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C19" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="D19" t="s">
         <v>175</v>
@@ -4511,7 +4523,7 @@
         <v>176</v>
       </c>
       <c r="F19" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="G19" t="s">
         <v>177</v>
@@ -4520,7 +4532,7 @@
         <v>178</v>
       </c>
       <c r="I19" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="J19" t="s">
         <v>179</v>
@@ -4529,7 +4541,7 @@
         <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="M19" t="s">
         <v>181</v>
@@ -4540,7 +4552,7 @@
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="S19" t="s">
         <v>183</v>
@@ -4554,7 +4566,7 @@
         <v>185</v>
       </c>
       <c r="B20" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C20" t="s">
         <v>187</v>
@@ -4566,7 +4578,7 @@
         <v>187</v>
       </c>
       <c r="F20" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="G20" t="s">
         <v>188</v>
@@ -4575,7 +4587,7 @@
         <v>189</v>
       </c>
       <c r="I20" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="J20" t="s">
         <v>190</v>
@@ -4584,7 +4596,7 @@
         <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="M20" t="s">
         <v>192</v>
@@ -4595,7 +4607,7 @@
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="S20" t="s">
         <v>194</v>
@@ -4609,10 +4621,10 @@
         <v>196</v>
       </c>
       <c r="B21" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C21" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D21" t="s">
         <v>197</v>
@@ -4621,7 +4633,7 @@
         <v>198</v>
       </c>
       <c r="F21" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="G21" t="s">
         <v>199</v>
@@ -4630,7 +4642,7 @@
         <v>200</v>
       </c>
       <c r="I21" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="J21" t="s">
         <v>201</v>
@@ -4639,7 +4651,7 @@
         <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="M21" t="s">
         <v>203</v>
@@ -4650,7 +4662,7 @@
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="S21" t="s">
         <v>205</v>
@@ -4664,10 +4676,10 @@
         <v>207</v>
       </c>
       <c r="B22" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C22" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D22" t="s">
         <v>208</v>
@@ -4676,7 +4688,7 @@
         <v>209</v>
       </c>
       <c r="F22" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="G22" t="s">
         <v>210</v>
@@ -4685,7 +4697,7 @@
         <v>211</v>
       </c>
       <c r="I22" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="J22" t="s">
         <v>212</v>
@@ -4694,7 +4706,7 @@
         <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="M22" t="s">
         <v>214</v>
@@ -4705,7 +4717,7 @@
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="S22" t="s">
         <v>216</v>
@@ -4719,10 +4731,10 @@
         <v>218</v>
       </c>
       <c r="B23" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C23" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D23" t="s">
         <v>219</v>
@@ -4731,7 +4743,7 @@
         <v>220</v>
       </c>
       <c r="F23" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="G23" t="s">
         <v>221</v>
@@ -4740,7 +4752,7 @@
         <v>222</v>
       </c>
       <c r="I23" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="J23" t="s">
         <v>223</v>
@@ -4749,7 +4761,7 @@
         <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="M23" t="s">
         <v>225</v>
@@ -4760,7 +4772,7 @@
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="S23" t="s">
         <v>227</v>
@@ -4774,10 +4786,10 @@
         <v>229</v>
       </c>
       <c r="B24" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C24" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D24" t="s">
         <v>230</v>
@@ -4786,7 +4798,7 @@
         <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="G24" t="s">
         <v>232</v>
@@ -4795,7 +4807,7 @@
         <v>233</v>
       </c>
       <c r="I24" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="J24" t="s">
         <v>230</v>
@@ -4804,7 +4816,7 @@
         <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="M24" t="s">
         <v>234</v>
@@ -4815,7 +4827,7 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="S24" t="s">
         <v>236</v>
@@ -4829,10 +4841,10 @@
         <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C25" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -4841,7 +4853,7 @@
         <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="G25" t="s">
         <v>241</v>
@@ -4850,7 +4862,7 @@
         <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="J25" t="s">
         <v>239</v>
@@ -4859,7 +4871,7 @@
         <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="M25" t="s">
         <v>243</v>
@@ -4877,10 +4889,10 @@
         <v>245</v>
       </c>
       <c r="B26" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C26" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="D26" t="s">
         <v>246</v>
@@ -4889,7 +4901,7 @@
         <v>247</v>
       </c>
       <c r="F26" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="G26" t="s">
         <v>248</v>
@@ -4898,7 +4910,7 @@
         <v>249</v>
       </c>
       <c r="I26" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="J26" t="s">
         <v>246</v>
@@ -4907,7 +4919,7 @@
         <v>247</v>
       </c>
       <c r="L26" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="M26" t="s">
         <v>250</v>
@@ -4918,7 +4930,7 @@
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="S26" t="s">
         <v>252</v>
@@ -4932,10 +4944,10 @@
         <v>254</v>
       </c>
       <c r="B27" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C27" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="D27" t="s">
         <v>255</v>
@@ -4944,7 +4956,7 @@
         <v>256</v>
       </c>
       <c r="F27" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="G27" t="s">
         <v>257</v>
@@ -4953,7 +4965,7 @@
         <v>258</v>
       </c>
       <c r="I27" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="J27" t="s">
         <v>255</v>
@@ -4962,7 +4974,7 @@
         <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="M27" t="s">
         <v>259</v>
@@ -4973,7 +4985,7 @@
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="S27" t="s">
         <v>261</v>
@@ -4987,10 +4999,10 @@
         <v>263</v>
       </c>
       <c r="B28" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C28" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="D28" t="s">
         <v>264</v>
@@ -4999,7 +5011,7 @@
         <v>265</v>
       </c>
       <c r="F28" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="G28" t="s">
         <v>266</v>
@@ -5008,7 +5020,7 @@
         <v>267</v>
       </c>
       <c r="I28" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="J28" t="s">
         <v>264</v>
@@ -5017,7 +5029,7 @@
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="M28" t="s">
         <v>268</v>
@@ -5028,7 +5040,7 @@
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="S28" t="s">
         <v>270</v>
@@ -5042,10 +5054,10 @@
         <v>272</v>
       </c>
       <c r="B29" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C29" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D29" t="s">
         <v>273</v>
@@ -5054,7 +5066,7 @@
         <v>274</v>
       </c>
       <c r="F29" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="G29" t="s">
         <v>275</v>
@@ -5063,7 +5075,7 @@
         <v>276</v>
       </c>
       <c r="I29" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="J29" t="s">
         <v>273</v>
@@ -5072,7 +5084,7 @@
         <v>274</v>
       </c>
       <c r="L29" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="M29" t="s">
         <v>277</v>
@@ -5083,7 +5095,7 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="S29" t="s">
         <v>279</v>
@@ -5097,7 +5109,7 @@
         <v>281</v>
       </c>
       <c r="B30" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C30" t="s">
         <v>283</v>
@@ -5109,7 +5121,7 @@
         <v>283</v>
       </c>
       <c r="F30" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="G30" t="s">
         <v>284</v>
@@ -5127,7 +5139,7 @@
         <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="M30" t="s">
         <v>286</v>
@@ -5138,7 +5150,7 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="S30" t="s">
         <v>288</v>
@@ -5152,10 +5164,10 @@
         <v>290</v>
       </c>
       <c r="B31" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C31" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="D31" t="s">
         <v>291</v>
@@ -5164,7 +5176,7 @@
         <v>292</v>
       </c>
       <c r="F31" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="G31" t="s">
         <v>293</v>
@@ -5173,7 +5185,7 @@
         <v>294</v>
       </c>
       <c r="I31" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="J31" t="s">
         <v>291</v>
@@ -5182,7 +5194,7 @@
         <v>292</v>
       </c>
       <c r="L31" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="M31" t="s">
         <v>295</v>
@@ -5193,7 +5205,7 @@
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="S31" t="s">
         <v>297</v>
@@ -5207,10 +5219,10 @@
         <v>299</v>
       </c>
       <c r="B32" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C32" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D32" t="s">
         <v>300</v>
@@ -5219,7 +5231,7 @@
         <v>301</v>
       </c>
       <c r="F32" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="G32" t="s">
         <v>302</v>
@@ -5228,7 +5240,7 @@
         <v>303</v>
       </c>
       <c r="I32" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="J32" t="s">
         <v>300</v>
@@ -5237,7 +5249,7 @@
         <v>301</v>
       </c>
       <c r="L32" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="M32" t="s">
         <v>304</v>
@@ -5248,7 +5260,7 @@
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="S32" t="s">
         <v>306</v>
@@ -5262,10 +5274,10 @@
         <v>308</v>
       </c>
       <c r="B33" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C33" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="D33" t="s">
         <v>309</v>
@@ -5274,7 +5286,7 @@
         <v>310</v>
       </c>
       <c r="F33" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="G33" t="s">
         <v>311</v>
@@ -5283,7 +5295,7 @@
         <v>312</v>
       </c>
       <c r="I33" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="J33" t="s">
         <v>313</v>
@@ -5292,7 +5304,7 @@
         <v>314</v>
       </c>
       <c r="L33" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="M33" t="s">
         <v>315</v>
@@ -5303,7 +5315,7 @@
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="S33" t="s">
         <v>317</v>
@@ -5317,10 +5329,10 @@
         <v>319</v>
       </c>
       <c r="B34" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C34" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D34" t="s">
         <v>320</v>
@@ -5329,7 +5341,7 @@
         <v>321</v>
       </c>
       <c r="F34" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="G34" t="s">
         <v>322</v>
@@ -5338,7 +5350,7 @@
         <v>323</v>
       </c>
       <c r="I34" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="J34" t="s">
         <v>320</v>
@@ -5347,7 +5359,7 @@
         <v>321</v>
       </c>
       <c r="L34" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="M34" t="s">
         <v>324</v>
@@ -5358,7 +5370,7 @@
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="S34" t="s">
         <v>326</v>
@@ -5372,10 +5384,10 @@
         <v>328</v>
       </c>
       <c r="B35" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C35" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="D35" t="s">
         <v>329</v>
@@ -5384,7 +5396,7 @@
         <v>330</v>
       </c>
       <c r="F35" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="G35" t="s">
         <v>331</v>
@@ -5393,7 +5405,7 @@
         <v>332</v>
       </c>
       <c r="I35" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="J35" t="s">
         <v>329</v>
@@ -5402,7 +5414,7 @@
         <v>330</v>
       </c>
       <c r="L35" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="M35" t="s">
         <v>333</v>
@@ -5413,7 +5425,7 @@
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="S35" t="s">
         <v>335</v>
@@ -5427,10 +5439,10 @@
         <v>337</v>
       </c>
       <c r="B36" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C36" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D36" t="s">
         <v>338</v>
@@ -5439,7 +5451,7 @@
         <v>339</v>
       </c>
       <c r="F36" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="G36" t="s">
         <v>340</v>
@@ -5448,7 +5460,7 @@
         <v>341</v>
       </c>
       <c r="I36" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="J36" t="s">
         <v>342</v>
@@ -5457,7 +5469,7 @@
         <v>339</v>
       </c>
       <c r="L36" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="M36" t="s">
         <v>343</v>
@@ -5468,7 +5480,7 @@
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="S36" t="s">
         <v>345</v>
@@ -5482,7 +5494,7 @@
         <v>347</v>
       </c>
       <c r="B37" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C37" t="s">
         <v>349</v>
@@ -5494,7 +5506,7 @@
         <v>349</v>
       </c>
       <c r="F37" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="G37" t="s">
         <v>350</v>
@@ -5512,7 +5524,7 @@
         <v>349</v>
       </c>
       <c r="L37" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="M37" t="s">
         <v>352</v>
@@ -5523,7 +5535,7 @@
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="S37" t="s">
         <v>354</v>
@@ -5537,10 +5549,10 @@
         <v>356</v>
       </c>
       <c r="B38" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C38" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D38" t="s">
         <v>357</v>
@@ -5549,7 +5561,7 @@
         <v>358</v>
       </c>
       <c r="F38" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="G38" t="s">
         <v>359</v>
@@ -5558,7 +5570,7 @@
         <v>360</v>
       </c>
       <c r="I38" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="J38" t="s">
         <v>361</v>
@@ -5567,7 +5579,7 @@
         <v>358</v>
       </c>
       <c r="L38" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="M38" t="s">
         <v>362</v>
@@ -5578,7 +5590,7 @@
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="S38" t="s">
         <v>364</v>
@@ -5592,10 +5604,10 @@
         <v>366</v>
       </c>
       <c r="B39" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C39" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D39" t="s">
         <v>367</v>
@@ -5604,7 +5616,7 @@
         <v>368</v>
       </c>
       <c r="F39" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="G39" t="s">
         <v>369</v>
@@ -5613,7 +5625,7 @@
         <v>370</v>
       </c>
       <c r="I39" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="J39" t="s">
         <v>367</v>
@@ -5622,7 +5634,7 @@
         <v>368</v>
       </c>
       <c r="L39" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="M39" t="s">
         <v>371</v>
@@ -5633,7 +5645,7 @@
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="S39" t="s">
         <v>373</v>
@@ -5647,10 +5659,10 @@
         <v>375</v>
       </c>
       <c r="B40" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C40" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="D40" t="s">
         <v>376</v>
@@ -5659,7 +5671,7 @@
         <v>377</v>
       </c>
       <c r="F40" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="G40" t="s">
         <v>378</v>
@@ -5668,7 +5680,7 @@
         <v>379</v>
       </c>
       <c r="I40" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="J40" t="s">
         <v>376</v>
@@ -5677,7 +5689,7 @@
         <v>377</v>
       </c>
       <c r="L40" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="M40" t="s">
         <v>380</v>
@@ -5688,7 +5700,7 @@
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="S40" t="s">
         <v>382</v>
@@ -5702,10 +5714,10 @@
         <v>384</v>
       </c>
       <c r="B41" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C41" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D41" t="s">
         <v>385</v>
@@ -5714,7 +5726,7 @@
         <v>386</v>
       </c>
       <c r="F41" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="G41" t="s">
         <v>387</v>
@@ -5723,7 +5735,7 @@
         <v>388</v>
       </c>
       <c r="I41" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="J41" t="s">
         <v>385</v>
@@ -5732,7 +5744,7 @@
         <v>386</v>
       </c>
       <c r="L41" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="M41" t="s">
         <v>389</v>
@@ -5750,10 +5762,10 @@
         <v>391</v>
       </c>
       <c r="B42" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C42" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D42" t="s">
         <v>392</v>
@@ -5762,7 +5774,7 @@
         <v>393</v>
       </c>
       <c r="F42" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="G42" t="s">
         <v>394</v>
@@ -5771,7 +5783,7 @@
         <v>395</v>
       </c>
       <c r="I42" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="J42" t="s">
         <v>392</v>
@@ -5791,10 +5803,10 @@
         <v>396</v>
       </c>
       <c r="B43" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C43" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="D43" t="s">
         <v>397</v>
@@ -5803,7 +5815,7 @@
         <v>398</v>
       </c>
       <c r="F43" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="G43" t="s">
         <v>399</v>
@@ -5812,7 +5824,7 @@
         <v>400</v>
       </c>
       <c r="I43" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="J43" t="s">
         <v>397</v>
@@ -5832,10 +5844,10 @@
         <v>401</v>
       </c>
       <c r="B44" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C44" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D44" t="s">
         <v>402</v>
@@ -5844,7 +5856,7 @@
         <v>403</v>
       </c>
       <c r="F44" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="G44" t="s">
         <v>404</v>
@@ -5853,7 +5865,7 @@
         <v>405</v>
       </c>
       <c r="I44" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="J44" t="s">
         <v>402</v>
@@ -5862,7 +5874,7 @@
         <v>403</v>
       </c>
       <c r="L44" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="M44" t="s">
         <v>406</v>
@@ -5873,7 +5885,7 @@
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="S44" t="s">
         <v>408</v>
@@ -5887,10 +5899,10 @@
         <v>410</v>
       </c>
       <c r="B45" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C45" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="D45" t="s">
         <v>411</v>
@@ -5899,7 +5911,7 @@
         <v>412</v>
       </c>
       <c r="F45" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="G45" t="s">
         <v>413</v>
@@ -5908,7 +5920,7 @@
         <v>414</v>
       </c>
       <c r="I45" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="J45" t="s">
         <v>415</v>
@@ -5917,7 +5929,7 @@
         <v>412</v>
       </c>
       <c r="L45" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="M45" t="s">
         <v>416</v>
@@ -5928,7 +5940,7 @@
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="S45" t="s">
         <v>418</v>
@@ -5942,10 +5954,10 @@
         <v>420</v>
       </c>
       <c r="B46" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C46" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="D46" t="s">
         <v>421</v>
@@ -5954,7 +5966,7 @@
         <v>422</v>
       </c>
       <c r="F46" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="G46" t="s">
         <v>423</v>
@@ -5963,7 +5975,7 @@
         <v>424</v>
       </c>
       <c r="I46" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="J46" t="s">
         <v>421</v>
@@ -5972,7 +5984,7 @@
         <v>422</v>
       </c>
       <c r="L46" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="M46" t="s">
         <v>425</v>
@@ -5983,7 +5995,7 @@
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="S46" t="s">
         <v>326</v>
@@ -5997,10 +6009,10 @@
         <v>427</v>
       </c>
       <c r="B47" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C47" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="D47" t="s">
         <v>428</v>
@@ -6009,7 +6021,7 @@
         <v>429</v>
       </c>
       <c r="F47" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="G47" t="s">
         <v>430</v>
@@ -6018,7 +6030,7 @@
         <v>431</v>
       </c>
       <c r="I47" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="J47" t="s">
         <v>428</v>
@@ -6027,7 +6039,7 @@
         <v>429</v>
       </c>
       <c r="L47" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="M47" t="s">
         <v>432</v>
@@ -6038,7 +6050,7 @@
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="S47" t="s">
         <v>434</v>
@@ -6052,7 +6064,7 @@
         <v>436</v>
       </c>
       <c r="B48" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C48" t="s">
         <v>438</v>
@@ -6064,7 +6076,7 @@
         <v>438</v>
       </c>
       <c r="F48" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="G48" t="s">
         <v>439</v>
@@ -6082,7 +6094,7 @@
         <v>438</v>
       </c>
       <c r="L48" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="M48" t="s">
         <v>441</v>
@@ -6100,10 +6112,10 @@
         <v>443</v>
       </c>
       <c r="B49" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C49" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="D49" t="s">
         <v>444</v>
@@ -6112,7 +6124,7 @@
         <v>445</v>
       </c>
       <c r="F49" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="G49" t="s">
         <v>446</v>
@@ -6121,446 +6133,439 @@
         <v>447</v>
       </c>
       <c r="I49" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="J49" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K49" t="s">
         <v>445</v>
       </c>
       <c r="L49" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="M49" t="s">
+        <v>448</v>
+      </c>
+      <c r="N49" t="s">
         <v>449</v>
-      </c>
-      <c r="N49" t="s">
-        <v>450</v>
       </c>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49" t="s">
-        <v>1113</v>
-      </c>
-      <c r="S49" t="s">
-        <v>451</v>
-      </c>
-      <c r="T49" t="s">
-        <v>452</v>
-      </c>
+      <c r="S49"/>
+      <c r="T49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>450</v>
+      </c>
+      <c r="B50" t="s">
+        <v>800</v>
+      </c>
+      <c r="C50" t="s">
+        <v>856</v>
+      </c>
+      <c r="D50" t="s">
+        <v>451</v>
+      </c>
+      <c r="E50" t="s">
+        <v>452</v>
+      </c>
+      <c r="F50" t="s">
+        <v>943</v>
+      </c>
+      <c r="G50" t="s">
         <v>453</v>
       </c>
-      <c r="B50" t="s">
-        <v>798</v>
-      </c>
-      <c r="C50" t="s">
-        <v>853</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="H50" t="s">
         <v>454</v>
       </c>
-      <c r="E50" t="s">
+      <c r="I50" t="s">
+        <v>856</v>
+      </c>
+      <c r="J50" t="s">
+        <v>451</v>
+      </c>
+      <c r="K50" t="s">
+        <v>452</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M50" t="s">
         <v>455</v>
       </c>
-      <c r="F50" t="s">
-        <v>939</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="N50" t="s">
         <v>456</v>
-      </c>
-      <c r="H50" t="s">
-        <v>457</v>
-      </c>
-      <c r="I50" t="s">
-        <v>853</v>
-      </c>
-      <c r="J50" t="s">
-        <v>454</v>
-      </c>
-      <c r="K50" t="s">
-        <v>455</v>
-      </c>
-      <c r="L50" t="s">
-        <v>1042</v>
-      </c>
-      <c r="M50" t="s">
-        <v>458</v>
-      </c>
-      <c r="N50" t="s">
-        <v>459</v>
       </c>
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="S50" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="T50" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>459</v>
+      </c>
+      <c r="B51" t="s">
+        <v>801</v>
+      </c>
+      <c r="C51" t="s">
+        <v>857</v>
+      </c>
+      <c r="D51" t="s">
+        <v>460</v>
+      </c>
+      <c r="E51" t="s">
+        <v>461</v>
+      </c>
+      <c r="F51" t="s">
+        <v>943</v>
+      </c>
+      <c r="G51" t="s">
+        <v>453</v>
+      </c>
+      <c r="H51" t="s">
+        <v>454</v>
+      </c>
+      <c r="I51" t="s">
+        <v>857</v>
+      </c>
+      <c r="J51" t="s">
+        <v>460</v>
+      </c>
+      <c r="K51" t="s">
+        <v>461</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M51" t="s">
         <v>462</v>
       </c>
-      <c r="B51" t="s">
-        <v>799</v>
-      </c>
-      <c r="C51" t="s">
-        <v>854</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="N51" t="s">
         <v>463</v>
-      </c>
-      <c r="E51" t="s">
-        <v>464</v>
-      </c>
-      <c r="F51" t="s">
-        <v>939</v>
-      </c>
-      <c r="G51" t="s">
-        <v>456</v>
-      </c>
-      <c r="H51" t="s">
-        <v>457</v>
-      </c>
-      <c r="I51" t="s">
-        <v>854</v>
-      </c>
-      <c r="J51" t="s">
-        <v>463</v>
-      </c>
-      <c r="K51" t="s">
-        <v>464</v>
-      </c>
-      <c r="L51" t="s">
-        <v>1043</v>
-      </c>
-      <c r="M51" t="s">
-        <v>465</v>
-      </c>
-      <c r="N51" t="s">
-        <v>466</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="S51" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="T51" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>466</v>
+      </c>
+      <c r="B52" t="s">
+        <v>800</v>
+      </c>
+      <c r="C52" t="s">
+        <v>858</v>
+      </c>
+      <c r="D52" t="s">
+        <v>467</v>
+      </c>
+      <c r="E52" t="s">
+        <v>468</v>
+      </c>
+      <c r="F52" t="s">
+        <v>944</v>
+      </c>
+      <c r="G52" t="s">
         <v>469</v>
       </c>
-      <c r="B52" t="s">
-        <v>798</v>
-      </c>
-      <c r="C52" t="s">
-        <v>855</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="H52" t="s">
         <v>470</v>
       </c>
-      <c r="E52" t="s">
+      <c r="I52" t="s">
+        <v>858</v>
+      </c>
+      <c r="J52" t="s">
+        <v>467</v>
+      </c>
+      <c r="K52" t="s">
+        <v>468</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M52" t="s">
         <v>471</v>
       </c>
-      <c r="F52" t="s">
-        <v>940</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="N52" t="s">
         <v>472</v>
-      </c>
-      <c r="H52" t="s">
-        <v>473</v>
-      </c>
-      <c r="I52" t="s">
-        <v>855</v>
-      </c>
-      <c r="J52" t="s">
-        <v>470</v>
-      </c>
-      <c r="K52" t="s">
-        <v>471</v>
-      </c>
-      <c r="L52" t="s">
-        <v>1044</v>
-      </c>
-      <c r="M52" t="s">
-        <v>474</v>
-      </c>
-      <c r="N52" t="s">
-        <v>475</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="S52" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="T52" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B53" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C53" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="D53" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E53" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F53" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="G53" t="s">
+        <v>469</v>
+      </c>
+      <c r="H53" t="s">
+        <v>470</v>
+      </c>
+      <c r="I53" t="s">
+        <v>859</v>
+      </c>
+      <c r="J53" t="s">
+        <v>474</v>
+      </c>
+      <c r="K53" t="s">
+        <v>475</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M53" t="s">
+        <v>471</v>
+      </c>
+      <c r="N53" t="s">
         <v>472</v>
-      </c>
-      <c r="H53" t="s">
-        <v>473</v>
-      </c>
-      <c r="I53" t="s">
-        <v>856</v>
-      </c>
-      <c r="J53" t="s">
-        <v>477</v>
-      </c>
-      <c r="K53" t="s">
-        <v>478</v>
-      </c>
-      <c r="L53" t="s">
-        <v>1044</v>
-      </c>
-      <c r="M53" t="s">
-        <v>474</v>
-      </c>
-      <c r="N53" t="s">
-        <v>475</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="S53" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="T53" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B54" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C54" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D54" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E54" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F54" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="G54" t="s">
+        <v>469</v>
+      </c>
+      <c r="H54" t="s">
+        <v>470</v>
+      </c>
+      <c r="I54" t="s">
+        <v>860</v>
+      </c>
+      <c r="J54" t="s">
+        <v>477</v>
+      </c>
+      <c r="K54" t="s">
+        <v>478</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M54" t="s">
+        <v>471</v>
+      </c>
+      <c r="N54" t="s">
         <v>472</v>
-      </c>
-      <c r="H54" t="s">
-        <v>473</v>
-      </c>
-      <c r="I54" t="s">
-        <v>857</v>
-      </c>
-      <c r="J54" t="s">
-        <v>480</v>
-      </c>
-      <c r="K54" t="s">
-        <v>481</v>
-      </c>
-      <c r="L54" t="s">
-        <v>1044</v>
-      </c>
-      <c r="M54" t="s">
-        <v>474</v>
-      </c>
-      <c r="N54" t="s">
-        <v>475</v>
       </c>
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="S54" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="T54" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B55" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C55" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="D55" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E55" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F55" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="G55" t="s">
+        <v>469</v>
+      </c>
+      <c r="H55" t="s">
+        <v>470</v>
+      </c>
+      <c r="I55" t="s">
+        <v>861</v>
+      </c>
+      <c r="J55" t="s">
+        <v>480</v>
+      </c>
+      <c r="K55" t="s">
+        <v>481</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M55" t="s">
+        <v>471</v>
+      </c>
+      <c r="N55" t="s">
         <v>472</v>
-      </c>
-      <c r="H55" t="s">
-        <v>473</v>
-      </c>
-      <c r="I55" t="s">
-        <v>858</v>
-      </c>
-      <c r="J55" t="s">
-        <v>483</v>
-      </c>
-      <c r="K55" t="s">
-        <v>484</v>
-      </c>
-      <c r="L55" t="s">
-        <v>1044</v>
-      </c>
-      <c r="M55" t="s">
-        <v>474</v>
-      </c>
-      <c r="N55" t="s">
-        <v>475</v>
       </c>
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="S55" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="T55" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>482</v>
+      </c>
+      <c r="B56" t="s">
+        <v>804</v>
+      </c>
+      <c r="C56" t="s">
+        <v>862</v>
+      </c>
+      <c r="D56" t="s">
+        <v>483</v>
+      </c>
+      <c r="E56" t="s">
+        <v>484</v>
+      </c>
+      <c r="F56" t="s">
+        <v>944</v>
+      </c>
+      <c r="G56" t="s">
+        <v>469</v>
+      </c>
+      <c r="H56" t="s">
+        <v>470</v>
+      </c>
+      <c r="I56" t="s">
+        <v>862</v>
+      </c>
+      <c r="J56" t="s">
+        <v>483</v>
+      </c>
+      <c r="K56" t="s">
+        <v>484</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M56" t="s">
         <v>485</v>
       </c>
-      <c r="B56" t="s">
-        <v>802</v>
-      </c>
-      <c r="C56" t="s">
-        <v>859</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="N56" t="s">
         <v>486</v>
-      </c>
-      <c r="E56" t="s">
-        <v>487</v>
-      </c>
-      <c r="F56" t="s">
-        <v>940</v>
-      </c>
-      <c r="G56" t="s">
-        <v>472</v>
-      </c>
-      <c r="H56" t="s">
-        <v>473</v>
-      </c>
-      <c r="I56" t="s">
-        <v>859</v>
-      </c>
-      <c r="J56" t="s">
-        <v>486</v>
-      </c>
-      <c r="K56" t="s">
-        <v>487</v>
-      </c>
-      <c r="L56" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M56" t="s">
-        <v>488</v>
-      </c>
-      <c r="N56" t="s">
-        <v>489</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="S56" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="T56" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B57" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C57" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D57" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E57" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J57" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K57" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M57"/>
       <c r="N57"/>
@@ -6571,30 +6576,30 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B58" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C58" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D58" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E58" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="J58" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K58" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M58"/>
       <c r="N58"/>
@@ -6605,37 +6610,37 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>496</v>
+      </c>
+      <c r="B59" t="s">
+        <v>804</v>
+      </c>
+      <c r="C59" t="s">
+        <v>864</v>
+      </c>
+      <c r="D59" t="s">
+        <v>497</v>
+      </c>
+      <c r="E59" t="s">
+        <v>498</v>
+      </c>
+      <c r="F59" t="s">
+        <v>945</v>
+      </c>
+      <c r="G59" t="s">
         <v>499</v>
       </c>
-      <c r="B59" t="s">
-        <v>802</v>
-      </c>
-      <c r="C59" t="s">
-        <v>861</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="H59" t="s">
         <v>500</v>
       </c>
-      <c r="E59" t="s">
-        <v>501</v>
-      </c>
-      <c r="F59" t="s">
-        <v>941</v>
-      </c>
-      <c r="G59" t="s">
-        <v>502</v>
-      </c>
-      <c r="H59" t="s">
-        <v>503</v>
-      </c>
       <c r="I59" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="J59" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K59" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="M59"/>
       <c r="N59"/>
@@ -6646,47 +6651,40 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>501</v>
+      </c>
+      <c r="B60" t="s">
+        <v>806</v>
+      </c>
+      <c r="C60" t="s">
+        <v>865</v>
+      </c>
+      <c r="D60" t="s">
+        <v>502</v>
+      </c>
+      <c r="E60" t="s">
+        <v>503</v>
+      </c>
+      <c r="F60" t="s">
+        <v>946</v>
+      </c>
+      <c r="G60" t="s">
         <v>504</v>
       </c>
-      <c r="B60" t="s">
-        <v>788</v>
-      </c>
-      <c r="C60" t="s">
-        <v>862</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="H60" t="s">
         <v>505</v>
       </c>
-      <c r="E60" t="s">
-        <v>506</v>
-      </c>
-      <c r="F60" t="s">
-        <v>942</v>
-      </c>
-      <c r="G60" t="s">
-        <v>507</v>
-      </c>
-      <c r="H60" t="s">
-        <v>508</v>
-      </c>
       <c r="I60" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="J60" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K60" t="s">
-        <v>506</v>
-      </c>
-      <c r="L60" t="s">
-        <v>1046</v>
-      </c>
-      <c r="M60" t="s">
-        <v>509</v>
-      </c>
-      <c r="N60" t="s">
-        <v>510</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M60"/>
+      <c r="N60"/>
       <c r="P60"/>
       <c r="Q60"/>
       <c r="S60"/>
@@ -6694,149 +6692,149 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>506</v>
+      </c>
+      <c r="B61" t="s">
+        <v>790</v>
+      </c>
+      <c r="C61" t="s">
+        <v>866</v>
+      </c>
+      <c r="D61" t="s">
+        <v>507</v>
+      </c>
+      <c r="E61" t="s">
+        <v>508</v>
+      </c>
+      <c r="F61" t="s">
+        <v>947</v>
+      </c>
+      <c r="G61" t="s">
+        <v>509</v>
+      </c>
+      <c r="H61" t="s">
+        <v>510</v>
+      </c>
+      <c r="I61" t="s">
+        <v>866</v>
+      </c>
+      <c r="J61" t="s">
+        <v>507</v>
+      </c>
+      <c r="K61" t="s">
+        <v>508</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M61" t="s">
         <v>511</v>
       </c>
-      <c r="B61" t="s">
-        <v>792</v>
-      </c>
-      <c r="C61" t="s">
-        <v>513</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="N61" t="s">
         <v>512</v>
-      </c>
-      <c r="E61" t="s">
-        <v>513</v>
-      </c>
-      <c r="F61" t="s">
-        <v>943</v>
-      </c>
-      <c r="G61" t="s">
-        <v>514</v>
-      </c>
-      <c r="H61" t="s">
-        <v>515</v>
-      </c>
-      <c r="I61" t="s">
-        <v>513</v>
-      </c>
-      <c r="J61" t="s">
-        <v>512</v>
-      </c>
-      <c r="K61" t="s">
-        <v>513</v>
-      </c>
-      <c r="L61" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M61" t="s">
-        <v>516</v>
-      </c>
-      <c r="N61" t="s">
-        <v>517</v>
       </c>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61" t="s">
-        <v>1117</v>
-      </c>
-      <c r="S61" t="s">
-        <v>518</v>
-      </c>
-      <c r="T61" t="s">
-        <v>519</v>
-      </c>
+      <c r="S61"/>
+      <c r="T61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B62" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="C62" t="s">
-        <v>863</v>
+        <v>515</v>
       </c>
       <c r="D62" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E62" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="F62" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="G62" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H62" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="I62" t="s">
-        <v>863</v>
+        <v>515</v>
       </c>
       <c r="J62" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="K62" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L62" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="M62" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="N62" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="P62"/>
       <c r="Q62"/>
-      <c r="S62"/>
-      <c r="T62"/>
+      <c r="R62" t="s">
+        <v>1121</v>
+      </c>
+      <c r="S62" t="s">
+        <v>520</v>
+      </c>
+      <c r="T62" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>522</v>
+      </c>
+      <c r="B63" t="s">
+        <v>790</v>
+      </c>
+      <c r="C63" t="s">
+        <v>867</v>
+      </c>
+      <c r="D63" t="s">
+        <v>523</v>
+      </c>
+      <c r="E63" t="s">
+        <v>524</v>
+      </c>
+      <c r="F63" t="s">
+        <v>949</v>
+      </c>
+      <c r="G63" t="s">
+        <v>525</v>
+      </c>
+      <c r="H63" t="s">
+        <v>526</v>
+      </c>
+      <c r="I63" t="s">
+        <v>867</v>
+      </c>
+      <c r="J63" t="s">
+        <v>523</v>
+      </c>
+      <c r="K63" t="s">
+        <v>524</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M63" t="s">
         <v>527</v>
       </c>
-      <c r="B63" t="s">
-        <v>788</v>
-      </c>
-      <c r="C63" t="s">
-        <v>529</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="N63" t="s">
         <v>528</v>
-      </c>
-      <c r="E63" t="s">
-        <v>529</v>
-      </c>
-      <c r="F63" t="s">
-        <v>945</v>
-      </c>
-      <c r="G63" t="s">
-        <v>530</v>
-      </c>
-      <c r="H63" t="s">
-        <v>531</v>
-      </c>
-      <c r="I63" t="s">
-        <v>529</v>
-      </c>
-      <c r="J63" t="s">
-        <v>528</v>
-      </c>
-      <c r="K63" t="s">
-        <v>529</v>
-      </c>
-      <c r="L63" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M63" t="s">
-        <v>532</v>
-      </c>
-      <c r="N63" t="s">
-        <v>533</v>
       </c>
       <c r="P63"/>
       <c r="Q63"/>
@@ -6845,46 +6843,46 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>529</v>
+      </c>
+      <c r="B64" t="s">
+        <v>790</v>
+      </c>
+      <c r="C64" t="s">
+        <v>531</v>
+      </c>
+      <c r="D64" t="s">
+        <v>530</v>
+      </c>
+      <c r="E64" t="s">
+        <v>531</v>
+      </c>
+      <c r="F64" t="s">
+        <v>950</v>
+      </c>
+      <c r="G64" t="s">
+        <v>532</v>
+      </c>
+      <c r="H64" t="s">
+        <v>533</v>
+      </c>
+      <c r="I64" t="s">
+        <v>531</v>
+      </c>
+      <c r="J64" t="s">
+        <v>530</v>
+      </c>
+      <c r="K64" t="s">
+        <v>531</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M64" t="s">
         <v>534</v>
       </c>
-      <c r="B64" t="s">
-        <v>804</v>
-      </c>
-      <c r="C64" t="s">
-        <v>864</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="N64" t="s">
         <v>535</v>
-      </c>
-      <c r="E64" t="s">
-        <v>536</v>
-      </c>
-      <c r="F64" t="s">
-        <v>946</v>
-      </c>
-      <c r="G64" t="s">
-        <v>537</v>
-      </c>
-      <c r="H64" t="s">
-        <v>538</v>
-      </c>
-      <c r="I64" t="s">
-        <v>864</v>
-      </c>
-      <c r="J64" t="s">
-        <v>535</v>
-      </c>
-      <c r="K64" t="s">
-        <v>536</v>
-      </c>
-      <c r="L64" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M64" t="s">
-        <v>539</v>
-      </c>
-      <c r="N64" t="s">
-        <v>540</v>
       </c>
       <c r="P64"/>
       <c r="Q64"/>
@@ -6893,149 +6891,149 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>536</v>
+      </c>
+      <c r="B65" t="s">
+        <v>807</v>
+      </c>
+      <c r="C65" t="s">
+        <v>868</v>
+      </c>
+      <c r="D65" t="s">
+        <v>537</v>
+      </c>
+      <c r="E65" t="s">
+        <v>538</v>
+      </c>
+      <c r="F65" t="s">
+        <v>951</v>
+      </c>
+      <c r="G65" t="s">
+        <v>539</v>
+      </c>
+      <c r="H65" t="s">
+        <v>540</v>
+      </c>
+      <c r="I65" t="s">
+        <v>868</v>
+      </c>
+      <c r="J65" t="s">
+        <v>537</v>
+      </c>
+      <c r="K65" t="s">
+        <v>538</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M65" t="s">
         <v>541</v>
       </c>
-      <c r="B65" t="s">
-        <v>798</v>
-      </c>
-      <c r="C65" t="s">
-        <v>865</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="N65" t="s">
         <v>542</v>
-      </c>
-      <c r="E65" t="s">
-        <v>543</v>
-      </c>
-      <c r="F65" t="s">
-        <v>947</v>
-      </c>
-      <c r="G65" t="s">
-        <v>544</v>
-      </c>
-      <c r="H65" t="s">
-        <v>545</v>
-      </c>
-      <c r="I65" t="s">
-        <v>865</v>
-      </c>
-      <c r="J65" t="s">
-        <v>542</v>
-      </c>
-      <c r="K65" t="s">
-        <v>543</v>
-      </c>
-      <c r="L65" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M65" t="s">
-        <v>546</v>
-      </c>
-      <c r="N65" t="s">
-        <v>547</v>
       </c>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65" t="s">
-        <v>1118</v>
-      </c>
-      <c r="S65" t="s">
-        <v>548</v>
-      </c>
-      <c r="T65" t="s">
-        <v>549</v>
-      </c>
+      <c r="S65"/>
+      <c r="T65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B66" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="C66" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="D66" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="E66" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="F66" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="G66" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="H66" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="I66" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="J66" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="K66" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="L66" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="M66" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="N66" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="S66"/>
-      <c r="T66"/>
+      <c r="R66" t="s">
+        <v>1122</v>
+      </c>
+      <c r="S66" t="s">
+        <v>550</v>
+      </c>
+      <c r="T66" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>552</v>
+      </c>
+      <c r="B67" t="s">
+        <v>790</v>
+      </c>
+      <c r="C67" t="s">
+        <v>870</v>
+      </c>
+      <c r="D67" t="s">
+        <v>553</v>
+      </c>
+      <c r="E67" t="s">
+        <v>554</v>
+      </c>
+      <c r="F67" t="s">
+        <v>953</v>
+      </c>
+      <c r="G67" t="s">
+        <v>555</v>
+      </c>
+      <c r="H67" t="s">
+        <v>556</v>
+      </c>
+      <c r="I67" t="s">
+        <v>870</v>
+      </c>
+      <c r="J67" t="s">
+        <v>553</v>
+      </c>
+      <c r="K67" t="s">
+        <v>554</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M67" t="s">
         <v>557</v>
       </c>
-      <c r="B67" t="s">
-        <v>789</v>
-      </c>
-      <c r="C67" t="s">
-        <v>867</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="N67" t="s">
         <v>558</v>
-      </c>
-      <c r="E67" t="s">
-        <v>559</v>
-      </c>
-      <c r="F67" t="s">
-        <v>949</v>
-      </c>
-      <c r="G67" t="s">
-        <v>560</v>
-      </c>
-      <c r="H67" t="s">
-        <v>561</v>
-      </c>
-      <c r="I67" t="s">
-        <v>867</v>
-      </c>
-      <c r="J67" t="s">
-        <v>558</v>
-      </c>
-      <c r="K67" t="s">
-        <v>559</v>
-      </c>
-      <c r="L67" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M67" t="s">
-        <v>562</v>
-      </c>
-      <c r="N67" t="s">
-        <v>563</v>
       </c>
       <c r="P67"/>
       <c r="Q67"/>
@@ -7044,442 +7042,449 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>559</v>
+      </c>
+      <c r="B68" t="s">
+        <v>791</v>
+      </c>
+      <c r="C68" t="s">
+        <v>871</v>
+      </c>
+      <c r="D68" t="s">
+        <v>560</v>
+      </c>
+      <c r="E68" t="s">
+        <v>561</v>
+      </c>
+      <c r="F68" t="s">
+        <v>954</v>
+      </c>
+      <c r="G68" t="s">
+        <v>562</v>
+      </c>
+      <c r="H68" t="s">
+        <v>563</v>
+      </c>
+      <c r="I68" t="s">
+        <v>871</v>
+      </c>
+      <c r="J68" t="s">
+        <v>560</v>
+      </c>
+      <c r="K68" t="s">
+        <v>561</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M68" t="s">
         <v>564</v>
       </c>
-      <c r="B68" t="s">
-        <v>781</v>
-      </c>
-      <c r="C68" t="s">
-        <v>868</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="N68" t="s">
         <v>565</v>
-      </c>
-      <c r="E68" t="s">
-        <v>566</v>
-      </c>
-      <c r="F68" t="s">
-        <v>950</v>
-      </c>
-      <c r="G68" t="s">
-        <v>567</v>
-      </c>
-      <c r="H68" t="s">
-        <v>568</v>
-      </c>
-      <c r="I68" t="s">
-        <v>984</v>
-      </c>
-      <c r="J68" t="s">
-        <v>569</v>
-      </c>
-      <c r="K68" t="s">
-        <v>570</v>
-      </c>
-      <c r="L68" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M68" t="s">
-        <v>571</v>
-      </c>
-      <c r="N68" t="s">
-        <v>572</v>
       </c>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="R68" t="s">
-        <v>1119</v>
-      </c>
-      <c r="S68" t="s">
-        <v>573</v>
-      </c>
-      <c r="T68" t="s">
-        <v>574</v>
-      </c>
+      <c r="S68"/>
+      <c r="T68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B69" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C69" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D69" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="E69" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F69" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="G69" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="H69" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="I69" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="J69" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="K69" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="L69" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="M69" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="N69" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="P69"/>
       <c r="Q69"/>
       <c r="R69" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="S69" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="T69" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="B70" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C70" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="D70" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E70" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="F70" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="G70" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="H70" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="I70" t="s">
-        <v>870</v>
+        <v>990</v>
       </c>
       <c r="J70" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="K70" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L70" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="M70" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="N70" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="S70" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="T70" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B71" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C71" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D71" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="E71" t="s">
-        <v>597</v>
-      </c>
-      <c r="G71"/>
-      <c r="H71"/>
+        <v>590</v>
+      </c>
+      <c r="F71" t="s">
+        <v>957</v>
+      </c>
+      <c r="G71" t="s">
+        <v>591</v>
+      </c>
+      <c r="H71" t="s">
+        <v>592</v>
+      </c>
       <c r="I71" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="J71" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="K71" t="s">
-        <v>597</v>
-      </c>
-      <c r="M71"/>
-      <c r="N71"/>
+        <v>590</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M71" t="s">
+        <v>593</v>
+      </c>
+      <c r="N71" t="s">
+        <v>594</v>
+      </c>
       <c r="P71"/>
       <c r="Q71"/>
-      <c r="S71"/>
-      <c r="T71"/>
+      <c r="R71" t="s">
+        <v>1125</v>
+      </c>
+      <c r="S71" t="s">
+        <v>595</v>
+      </c>
+      <c r="T71" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>597</v>
+      </c>
+      <c r="B72" t="s">
+        <v>783</v>
+      </c>
+      <c r="C72" t="s">
+        <v>875</v>
+      </c>
+      <c r="D72" t="s">
         <v>598</v>
       </c>
-      <c r="B72" t="s">
-        <v>805</v>
-      </c>
-      <c r="C72" t="s">
-        <v>600</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>599</v>
       </c>
-      <c r="E72" t="s">
-        <v>600</v>
-      </c>
-      <c r="F72" t="s">
-        <v>953</v>
-      </c>
-      <c r="G72" t="s">
-        <v>601</v>
-      </c>
-      <c r="H72" t="s">
-        <v>602</v>
-      </c>
+      <c r="G72"/>
+      <c r="H72"/>
       <c r="I72" t="s">
-        <v>600</v>
+        <v>875</v>
       </c>
       <c r="J72" t="s">
+        <v>598</v>
+      </c>
+      <c r="K72" t="s">
         <v>599</v>
       </c>
-      <c r="K72" t="s">
-        <v>600</v>
-      </c>
-      <c r="L72" t="s">
-        <v>1057</v>
-      </c>
-      <c r="M72" t="s">
-        <v>603</v>
-      </c>
-      <c r="N72" t="s">
-        <v>604</v>
-      </c>
+      <c r="M72"/>
+      <c r="N72"/>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="R72" t="s">
-        <v>1122</v>
-      </c>
-      <c r="S72" t="s">
-        <v>605</v>
-      </c>
-      <c r="T72" t="s">
-        <v>606</v>
-      </c>
+      <c r="S72"/>
+      <c r="T72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B73" t="s">
-        <v>781</v>
+        <v>808</v>
       </c>
       <c r="C73" t="s">
-        <v>872</v>
+        <v>602</v>
       </c>
       <c r="D73" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E73" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F73" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="G73" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="H73" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="I73" t="s">
-        <v>872</v>
+        <v>602</v>
       </c>
       <c r="J73" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="K73" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="L73" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="M73" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="N73" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="P73"/>
       <c r="Q73"/>
       <c r="R73" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="S73" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="T73" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B74" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
       <c r="C74" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="D74" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E74" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="F74" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="G74" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="H74" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="I74" t="s">
-        <v>986</v>
+        <v>876</v>
       </c>
       <c r="J74" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="K74" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="L74" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="M74" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="N74" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="P74"/>
       <c r="Q74"/>
       <c r="R74" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="S74" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="T74" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B75" t="s">
-        <v>781</v>
+        <v>809</v>
       </c>
       <c r="C75" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="D75" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E75" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F75" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="G75" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="H75" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="I75" t="s">
-        <v>874</v>
+        <v>991</v>
       </c>
       <c r="J75" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="K75" t="s">
-        <v>629</v>
-      </c>
-      <c r="M75"/>
-      <c r="N75"/>
+        <v>624</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M75" t="s">
+        <v>625</v>
+      </c>
+      <c r="N75" t="s">
+        <v>626</v>
+      </c>
       <c r="P75"/>
       <c r="Q75"/>
-      <c r="S75"/>
-      <c r="T75"/>
+      <c r="R75" t="s">
+        <v>1128</v>
+      </c>
+      <c r="S75" t="s">
+        <v>627</v>
+      </c>
+      <c r="T75" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>629</v>
+      </c>
+      <c r="B76" t="s">
+        <v>783</v>
+      </c>
+      <c r="C76" t="s">
+        <v>878</v>
+      </c>
+      <c r="D76" t="s">
+        <v>630</v>
+      </c>
+      <c r="E76" t="s">
+        <v>631</v>
+      </c>
+      <c r="F76" t="s">
+        <v>961</v>
+      </c>
+      <c r="G76" t="s">
+        <v>632</v>
+      </c>
+      <c r="H76" t="s">
         <v>633</v>
       </c>
-      <c r="B76" t="s">
-        <v>807</v>
-      </c>
-      <c r="C76" t="s">
-        <v>875</v>
-      </c>
-      <c r="D76" t="s">
-        <v>634</v>
-      </c>
-      <c r="E76" t="s">
-        <v>635</v>
-      </c>
-      <c r="F76" t="s">
-        <v>957</v>
-      </c>
-      <c r="G76" t="s">
-        <v>636</v>
-      </c>
-      <c r="H76" t="s">
-        <v>637</v>
-      </c>
       <c r="I76" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="J76" t="s">
         <v>634</v>
       </c>
       <c r="K76" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M76"/>
       <c r="N76"/>
@@ -7490,284 +7495,284 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>635</v>
+      </c>
+      <c r="B77" t="s">
+        <v>810</v>
+      </c>
+      <c r="C77" t="s">
+        <v>879</v>
+      </c>
+      <c r="D77" t="s">
+        <v>636</v>
+      </c>
+      <c r="E77" t="s">
+        <v>637</v>
+      </c>
+      <c r="F77" t="s">
+        <v>962</v>
+      </c>
+      <c r="G77" t="s">
         <v>638</v>
       </c>
-      <c r="B77" t="s">
-        <v>781</v>
-      </c>
-      <c r="C77" t="s">
-        <v>876</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="H77" t="s">
         <v>639</v>
       </c>
-      <c r="E77" t="s">
-        <v>640</v>
-      </c>
-      <c r="F77" t="s">
-        <v>958</v>
-      </c>
-      <c r="G77" t="s">
-        <v>641</v>
-      </c>
-      <c r="H77" t="s">
-        <v>642</v>
-      </c>
       <c r="I77" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="J77" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="K77" t="s">
-        <v>640</v>
-      </c>
-      <c r="L77" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M77" t="s">
-        <v>643</v>
-      </c>
-      <c r="N77" t="s">
-        <v>644</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="M77"/>
+      <c r="N77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="R77" t="s">
-        <v>1125</v>
-      </c>
-      <c r="S77" t="s">
-        <v>645</v>
-      </c>
-      <c r="T77" t="s">
-        <v>646</v>
-      </c>
+      <c r="S77"/>
+      <c r="T77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B78" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
       <c r="C78" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D78" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="E78" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F78" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="G78" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="H78" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="I78" t="s">
-        <v>987</v>
+        <v>880</v>
       </c>
       <c r="J78" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="K78" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="L78" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="M78" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="N78" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="P78"/>
       <c r="Q78"/>
       <c r="R78" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="S78" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="T78" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="B79" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C79" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D79" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E79" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="F79" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="G79" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="H79" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="I79" t="s">
-        <v>878</v>
+        <v>992</v>
       </c>
       <c r="J79" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="K79" t="s">
-        <v>660</v>
-      </c>
-      <c r="M79"/>
-      <c r="N79"/>
+        <v>655</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M79" t="s">
+        <v>656</v>
+      </c>
+      <c r="N79" t="s">
+        <v>657</v>
+      </c>
       <c r="P79"/>
       <c r="Q79"/>
-      <c r="S79"/>
-      <c r="T79"/>
+      <c r="R79" t="s">
+        <v>1130</v>
+      </c>
+      <c r="S79" t="s">
+        <v>658</v>
+      </c>
+      <c r="T79" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>660</v>
+      </c>
+      <c r="B80" t="s">
+        <v>812</v>
+      </c>
+      <c r="C80" t="s">
+        <v>882</v>
+      </c>
+      <c r="D80" t="s">
+        <v>661</v>
+      </c>
+      <c r="E80" t="s">
+        <v>662</v>
+      </c>
+      <c r="F80" t="s">
+        <v>965</v>
+      </c>
+      <c r="G80" t="s">
         <v>663</v>
       </c>
-      <c r="B80" t="s">
-        <v>781</v>
-      </c>
-      <c r="C80" t="s">
-        <v>879</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="H80" t="s">
         <v>664</v>
       </c>
-      <c r="E80" t="s">
-        <v>665</v>
-      </c>
-      <c r="F80" t="s">
-        <v>961</v>
-      </c>
-      <c r="G80" t="s">
-        <v>666</v>
-      </c>
-      <c r="H80" t="s">
-        <v>667</v>
-      </c>
       <c r="I80" t="s">
-        <v>988</v>
+        <v>882</v>
       </c>
       <c r="J80" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="K80" t="s">
-        <v>669</v>
-      </c>
-      <c r="L80" t="s">
-        <v>1062</v>
-      </c>
-      <c r="M80" t="s">
-        <v>670</v>
-      </c>
-      <c r="N80" t="s">
-        <v>671</v>
-      </c>
-      <c r="O80" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P80" t="s">
-        <v>672</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>673</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
       <c r="S80"/>
       <c r="T80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>665</v>
+      </c>
+      <c r="B81" t="s">
+        <v>783</v>
+      </c>
+      <c r="C81" t="s">
+        <v>883</v>
+      </c>
+      <c r="D81" t="s">
+        <v>666</v>
+      </c>
+      <c r="E81" t="s">
+        <v>667</v>
+      </c>
+      <c r="F81" t="s">
+        <v>966</v>
+      </c>
+      <c r="G81" t="s">
+        <v>668</v>
+      </c>
+      <c r="H81" t="s">
+        <v>669</v>
+      </c>
+      <c r="I81" t="s">
+        <v>993</v>
+      </c>
+      <c r="J81" t="s">
+        <v>670</v>
+      </c>
+      <c r="K81" t="s">
+        <v>671</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M81" t="s">
+        <v>672</v>
+      </c>
+      <c r="N81" t="s">
+        <v>673</v>
+      </c>
+      <c r="O81" t="s">
+        <v>1076</v>
+      </c>
+      <c r="P81" t="s">
         <v>674</v>
       </c>
-      <c r="B81" t="s">
-        <v>781</v>
-      </c>
-      <c r="C81" t="s">
-        <v>676</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="Q81" t="s">
         <v>675</v>
       </c>
-      <c r="E81" t="s">
-        <v>676</v>
-      </c>
-      <c r="F81" t="s">
-        <v>962</v>
-      </c>
-      <c r="G81" t="s">
-        <v>677</v>
-      </c>
-      <c r="H81" t="s">
-        <v>678</v>
-      </c>
-      <c r="I81" t="s">
-        <v>989</v>
-      </c>
-      <c r="J81" t="s">
-        <v>679</v>
-      </c>
-      <c r="K81" t="s">
-        <v>680</v>
-      </c>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
       <c r="S81"/>
       <c r="T81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>676</v>
+      </c>
+      <c r="B82" t="s">
+        <v>783</v>
+      </c>
+      <c r="C82" t="s">
+        <v>678</v>
+      </c>
+      <c r="D82" t="s">
+        <v>677</v>
+      </c>
+      <c r="E82" t="s">
+        <v>678</v>
+      </c>
+      <c r="F82" t="s">
+        <v>967</v>
+      </c>
+      <c r="G82" t="s">
+        <v>679</v>
+      </c>
+      <c r="H82" t="s">
+        <v>680</v>
+      </c>
+      <c r="I82" t="s">
+        <v>994</v>
+      </c>
+      <c r="J82" t="s">
         <v>681</v>
       </c>
-      <c r="B82" t="s">
-        <v>781</v>
-      </c>
-      <c r="C82" t="s">
-        <v>880</v>
-      </c>
-      <c r="D82" t="s">
-        <v>175</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="K82" t="s">
         <v>682</v>
-      </c>
-      <c r="F82" t="s">
-        <v>963</v>
-      </c>
-      <c r="G82" t="s">
-        <v>683</v>
-      </c>
-      <c r="H82" t="s">
-        <v>684</v>
-      </c>
-      <c r="I82" t="s">
-        <v>495</v>
-      </c>
-      <c r="J82" t="s">
-        <v>495</v>
-      </c>
-      <c r="K82" t="s">
-        <v>495</v>
       </c>
       <c r="M82"/>
       <c r="N82"/>
@@ -7778,37 +7783,37 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>683</v>
+      </c>
+      <c r="B83" t="s">
+        <v>783</v>
+      </c>
+      <c r="C83" t="s">
+        <v>884</v>
+      </c>
+      <c r="D83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" t="s">
+        <v>684</v>
+      </c>
+      <c r="F83" t="s">
+        <v>968</v>
+      </c>
+      <c r="G83" t="s">
         <v>685</v>
       </c>
-      <c r="B83" t="s">
-        <v>785</v>
-      </c>
-      <c r="C83" t="s">
-        <v>881</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="H83" t="s">
         <v>686</v>
       </c>
-      <c r="E83" t="s">
-        <v>687</v>
-      </c>
-      <c r="F83" t="s">
-        <v>964</v>
-      </c>
-      <c r="G83" t="s">
-        <v>688</v>
-      </c>
-      <c r="H83" t="s">
-        <v>689</v>
-      </c>
       <c r="I83" t="s">
-        <v>990</v>
+        <v>492</v>
       </c>
       <c r="J83" t="s">
-        <v>690</v>
+        <v>492</v>
       </c>
       <c r="K83" t="s">
-        <v>691</v>
+        <v>492</v>
       </c>
       <c r="M83"/>
       <c r="N83"/>
@@ -7819,119 +7824,126 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>687</v>
+      </c>
+      <c r="B84" t="s">
+        <v>787</v>
+      </c>
+      <c r="C84" t="s">
+        <v>885</v>
+      </c>
+      <c r="D84" t="s">
+        <v>688</v>
+      </c>
+      <c r="E84" t="s">
+        <v>689</v>
+      </c>
+      <c r="F84" t="s">
+        <v>969</v>
+      </c>
+      <c r="G84" t="s">
+        <v>690</v>
+      </c>
+      <c r="H84" t="s">
+        <v>691</v>
+      </c>
+      <c r="I84" t="s">
+        <v>995</v>
+      </c>
+      <c r="J84" t="s">
         <v>692</v>
       </c>
-      <c r="B84" t="s">
-        <v>781</v>
-      </c>
-      <c r="C84" t="s">
-        <v>119</v>
-      </c>
-      <c r="D84" t="s">
-        <v>118</v>
-      </c>
-      <c r="E84" t="s">
-        <v>119</v>
-      </c>
-      <c r="F84" t="s">
-        <v>965</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="K84" t="s">
         <v>693</v>
       </c>
-      <c r="H84" t="s">
-        <v>694</v>
-      </c>
-      <c r="I84" t="s">
-        <v>991</v>
-      </c>
-      <c r="J84" t="s">
-        <v>695</v>
-      </c>
-      <c r="K84" t="s">
-        <v>696</v>
-      </c>
-      <c r="L84" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M84" t="s">
-        <v>697</v>
-      </c>
-      <c r="N84" t="s">
-        <v>698</v>
-      </c>
-      <c r="O84" t="s">
-        <v>1072</v>
-      </c>
-      <c r="P84" t="s">
-        <v>699</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>700</v>
-      </c>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
       <c r="S84"/>
       <c r="T84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>694</v>
+      </c>
+      <c r="B85" t="s">
+        <v>783</v>
+      </c>
+      <c r="C85" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85" t="s">
+        <v>970</v>
+      </c>
+      <c r="G85" t="s">
+        <v>695</v>
+      </c>
+      <c r="H85" t="s">
+        <v>696</v>
+      </c>
+      <c r="I85" t="s">
+        <v>996</v>
+      </c>
+      <c r="J85" t="s">
+        <v>697</v>
+      </c>
+      <c r="K85" t="s">
+        <v>698</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M85" t="s">
+        <v>699</v>
+      </c>
+      <c r="N85" t="s">
+        <v>700</v>
+      </c>
+      <c r="O85" t="s">
+        <v>1077</v>
+      </c>
+      <c r="P85" t="s">
         <v>701</v>
       </c>
-      <c r="B85" t="s">
-        <v>781</v>
-      </c>
-      <c r="C85" t="s">
-        <v>882</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="Q85" t="s">
         <v>702</v>
       </c>
-      <c r="E85" t="s">
-        <v>703</v>
-      </c>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85" t="s">
-        <v>992</v>
-      </c>
-      <c r="J85" t="s">
-        <v>704</v>
-      </c>
-      <c r="K85" t="s">
-        <v>705</v>
-      </c>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="P85"/>
-      <c r="Q85"/>
       <c r="S85"/>
       <c r="T85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B86" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C86" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D86" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E86" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="J86" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="K86" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="M86"/>
       <c r="N86"/>
@@ -7942,37 +7954,30 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>708</v>
+      </c>
+      <c r="B87" t="s">
+        <v>783</v>
+      </c>
+      <c r="C87" t="s">
+        <v>887</v>
+      </c>
+      <c r="D87" t="s">
+        <v>709</v>
+      </c>
+      <c r="E87" t="s">
+        <v>710</v>
+      </c>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87" t="s">
+        <v>998</v>
+      </c>
+      <c r="J87" t="s">
         <v>711</v>
       </c>
-      <c r="B87" t="s">
-        <v>781</v>
-      </c>
-      <c r="C87" t="s">
-        <v>884</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="K87" t="s">
         <v>712</v>
-      </c>
-      <c r="E87" t="s">
-        <v>713</v>
-      </c>
-      <c r="F87" t="s">
-        <v>966</v>
-      </c>
-      <c r="G87" t="s">
-        <v>714</v>
-      </c>
-      <c r="H87" t="s">
-        <v>715</v>
-      </c>
-      <c r="I87" t="s">
-        <v>994</v>
-      </c>
-      <c r="J87" t="s">
-        <v>716</v>
-      </c>
-      <c r="K87" t="s">
-        <v>717</v>
       </c>
       <c r="M87"/>
       <c r="N87"/>
@@ -7983,24 +7988,38 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>713</v>
+      </c>
+      <c r="B88" t="s">
+        <v>783</v>
+      </c>
+      <c r="C88" t="s">
+        <v>888</v>
+      </c>
+      <c r="D88" t="s">
+        <v>714</v>
+      </c>
+      <c r="E88" t="s">
+        <v>715</v>
+      </c>
+      <c r="F88" t="s">
+        <v>971</v>
+      </c>
+      <c r="G88" t="s">
+        <v>716</v>
+      </c>
+      <c r="H88" t="s">
+        <v>717</v>
+      </c>
+      <c r="I88" t="s">
+        <v>999</v>
+      </c>
+      <c r="J88" t="s">
         <v>718</v>
       </c>
-      <c r="B88" t="s">
-        <v>781</v>
-      </c>
-      <c r="C88" t="s">
-        <v>885</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="K88" t="s">
         <v>719</v>
       </c>
-      <c r="E88" t="s">
-        <v>720</v>
-      </c>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="J88"/>
-      <c r="K88"/>
       <c r="M88"/>
       <c r="N88"/>
       <c r="P88"/>
@@ -8010,31 +8029,24 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>720</v>
+      </c>
+      <c r="B89" t="s">
+        <v>783</v>
+      </c>
+      <c r="C89" t="s">
+        <v>889</v>
+      </c>
+      <c r="D89" t="s">
         <v>721</v>
       </c>
-      <c r="B89" t="s">
-        <v>781</v>
-      </c>
-      <c r="C89" t="s">
-        <v>723</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>722</v>
-      </c>
-      <c r="E89" t="s">
-        <v>723</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
-      <c r="I89" t="s">
-        <v>995</v>
-      </c>
-      <c r="J89" t="s">
-        <v>724</v>
-      </c>
-      <c r="K89" t="s">
-        <v>725</v>
-      </c>
+      <c r="J89"/>
+      <c r="K89"/>
       <c r="M89"/>
       <c r="N89"/>
       <c r="P89"/>
@@ -8044,30 +8056,30 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B90" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C90" t="s">
-        <v>882</v>
+        <v>725</v>
       </c>
       <c r="D90" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
       <c r="E90" t="s">
-        <v>703</v>
+        <v>725</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="J90" t="s">
+        <v>726</v>
+      </c>
+      <c r="K90" t="s">
         <v>727</v>
-      </c>
-      <c r="K90" t="s">
-        <v>728</v>
       </c>
       <c r="M90"/>
       <c r="N90"/>
@@ -8078,338 +8090,372 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B91" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
       <c r="C91" t="s">
         <v>886</v>
       </c>
       <c r="D91" t="s">
+        <v>704</v>
+      </c>
+      <c r="E91" t="s">
+        <v>705</v>
+      </c>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J91" t="s">
+        <v>729</v>
+      </c>
+      <c r="K91" t="s">
         <v>730</v>
       </c>
-      <c r="E91" t="s">
-        <v>731</v>
-      </c>
-      <c r="F91" t="s">
-        <v>967</v>
-      </c>
-      <c r="G91" t="s">
-        <v>732</v>
-      </c>
-      <c r="H91" t="s">
-        <v>733</v>
-      </c>
-      <c r="I91" t="s">
-        <v>886</v>
-      </c>
-      <c r="J91" t="s">
-        <v>730</v>
-      </c>
-      <c r="K91" t="s">
-        <v>731</v>
-      </c>
-      <c r="L91" t="s">
-        <v>1064</v>
-      </c>
-      <c r="M91" t="s">
-        <v>734</v>
-      </c>
-      <c r="N91" t="s">
-        <v>735</v>
-      </c>
+      <c r="M91"/>
+      <c r="N91"/>
       <c r="P91"/>
       <c r="Q91"/>
-      <c r="R91" t="s">
-        <v>1118</v>
-      </c>
-      <c r="S91" t="s">
-        <v>548</v>
-      </c>
-      <c r="T91" t="s">
-        <v>549</v>
-      </c>
+      <c r="S91"/>
+      <c r="T91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>731</v>
+      </c>
+      <c r="B92" t="s">
+        <v>813</v>
+      </c>
+      <c r="C92" t="s">
+        <v>890</v>
+      </c>
+      <c r="D92" t="s">
+        <v>732</v>
+      </c>
+      <c r="E92" t="s">
+        <v>733</v>
+      </c>
+      <c r="F92" t="s">
+        <v>972</v>
+      </c>
+      <c r="G92" t="s">
+        <v>734</v>
+      </c>
+      <c r="H92" t="s">
+        <v>735</v>
+      </c>
+      <c r="I92" t="s">
+        <v>890</v>
+      </c>
+      <c r="J92" t="s">
+        <v>732</v>
+      </c>
+      <c r="K92" t="s">
+        <v>733</v>
+      </c>
+      <c r="L92" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M92" t="s">
         <v>736</v>
       </c>
-      <c r="B92" t="s">
-        <v>811</v>
-      </c>
-      <c r="C92" t="s">
-        <v>887</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="N92" t="s">
         <v>737</v>
       </c>
-      <c r="E92" t="s">
-        <v>738</v>
-      </c>
-      <c r="F92" t="s">
-        <v>968</v>
-      </c>
-      <c r="G92" t="s">
-        <v>739</v>
-      </c>
-      <c r="H92" t="s">
-        <v>740</v>
-      </c>
-      <c r="I92" t="s">
-        <v>887</v>
-      </c>
-      <c r="J92" t="s">
-        <v>737</v>
-      </c>
-      <c r="K92" t="s">
-        <v>738</v>
-      </c>
-      <c r="M92"/>
-      <c r="N92"/>
       <c r="P92"/>
       <c r="Q92"/>
-      <c r="S92"/>
-      <c r="T92"/>
+      <c r="R92" t="s">
+        <v>1122</v>
+      </c>
+      <c r="S92" t="s">
+        <v>550</v>
+      </c>
+      <c r="T92" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>738</v>
+      </c>
+      <c r="B93" t="s">
+        <v>814</v>
+      </c>
+      <c r="C93" t="s">
+        <v>891</v>
+      </c>
+      <c r="D93" t="s">
+        <v>739</v>
+      </c>
+      <c r="E93" t="s">
+        <v>740</v>
+      </c>
+      <c r="F93" t="s">
+        <v>973</v>
+      </c>
+      <c r="G93" t="s">
         <v>741</v>
       </c>
-      <c r="B93" t="s">
-        <v>812</v>
-      </c>
-      <c r="C93" t="s">
-        <v>888</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="H93" t="s">
         <v>742</v>
       </c>
-      <c r="E93" t="s">
-        <v>743</v>
-      </c>
-      <c r="F93" t="s">
-        <v>969</v>
-      </c>
-      <c r="G93" t="s">
-        <v>744</v>
-      </c>
-      <c r="H93" t="s">
-        <v>745</v>
-      </c>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M93" t="s">
-        <v>746</v>
-      </c>
-      <c r="N93" t="s">
-        <v>747</v>
-      </c>
+      <c r="I93" t="s">
+        <v>891</v>
+      </c>
+      <c r="J93" t="s">
+        <v>739</v>
+      </c>
+      <c r="K93" t="s">
+        <v>740</v>
+      </c>
+      <c r="M93"/>
+      <c r="N93"/>
       <c r="P93"/>
       <c r="Q93"/>
-      <c r="R93" t="s">
-        <v>1127</v>
-      </c>
-      <c r="S93" t="s">
-        <v>748</v>
-      </c>
-      <c r="T93" t="s">
-        <v>749</v>
-      </c>
+      <c r="S93"/>
+      <c r="T93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B94" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C94" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D94" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="E94" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="F94" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="G94" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="H94" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="M94" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="N94" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="P94"/>
       <c r="Q94"/>
       <c r="R94" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="S94" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="T94" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B95" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C95" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="D95" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="E95" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F95" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="G95" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H95" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="M95" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="N95" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="P95"/>
       <c r="Q95"/>
       <c r="R95" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="S95" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="T95" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>759</v>
+      </c>
+      <c r="B96" t="s">
+        <v>815</v>
+      </c>
+      <c r="C96" t="s">
+        <v>894</v>
+      </c>
+      <c r="D96" t="s">
+        <v>760</v>
+      </c>
+      <c r="E96" t="s">
+        <v>761</v>
+      </c>
+      <c r="F96" t="s">
+        <v>976</v>
+      </c>
+      <c r="G96" t="s">
         <v>762</v>
       </c>
-      <c r="B96" t="s">
-        <v>813</v>
-      </c>
-      <c r="C96" t="s">
-        <v>891</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="H96" t="s">
         <v>763</v>
-      </c>
-      <c r="E96" t="s">
-        <v>764</v>
-      </c>
-      <c r="F96" t="s">
-        <v>972</v>
-      </c>
-      <c r="G96" t="s">
-        <v>765</v>
-      </c>
-      <c r="H96" t="s">
-        <v>766</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="M96" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="N96" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="P96"/>
       <c r="Q96"/>
       <c r="R96" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="S96" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="T96" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B97" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C97" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="D97" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E97" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F97" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="G97" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="H97" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="M97" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="N97" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="P97"/>
       <c r="Q97"/>
       <c r="R97" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="S97" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="T97" t="s">
-        <v>749</v>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>771</v>
+      </c>
+      <c r="B98" t="s">
+        <v>816</v>
+      </c>
+      <c r="C98" t="s">
+        <v>896</v>
+      </c>
+      <c r="D98" t="s">
+        <v>772</v>
+      </c>
+      <c r="E98" t="s">
+        <v>773</v>
+      </c>
+      <c r="F98" t="s">
+        <v>978</v>
+      </c>
+      <c r="G98" t="s">
+        <v>774</v>
+      </c>
+      <c r="H98" t="s">
+        <v>775</v>
+      </c>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98" t="s">
+        <v>1073</v>
+      </c>
+      <c r="M98" t="s">
+        <v>776</v>
+      </c>
+      <c r="N98" t="s">
+        <v>777</v>
+      </c>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98" t="s">
+        <v>1131</v>
+      </c>
+      <c r="S98" t="s">
+        <v>750</v>
+      </c>
+      <c r="T98" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
